--- a/dynamic_context_server/ref/foundation/climate/climate_planets.xlsx
+++ b/dynamic_context_server/ref/foundation/climate/climate_planets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="195" windowWidth="17100" windowHeight="8265" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="195" windowWidth="17100" windowHeight="8265" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Mars English" sheetId="3" r:id="rId1"/>
@@ -254,10 +254,10 @@
     <t>T</t>
   </si>
   <si>
-    <t>P</t>
+    <t>P model</t>
   </si>
   <si>
-    <t>Pm</t>
+    <t>P actual</t>
   </si>
 </sst>
 </file>
@@ -4226,70 +4226,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>5.6283377435650701</c:v>
+                  <c:v>3.7522251623767136</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8347365888862148</c:v>
+                  <c:v>3.88982439259081</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.0570122684628345</c:v>
+                  <c:v>4.0380081789752227</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2792879480394523</c:v>
+                  <c:v>4.1861919653596349</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5015636276160693</c:v>
+                  <c:v>4.3343757517440462</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.7159008900649502</c:v>
+                  <c:v>4.4772672600433001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.9143613182583588</c:v>
+                  <c:v>4.6095742121722392</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.1048833293240321</c:v>
+                  <c:v>4.7365888862160217</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.2874669232619684</c:v>
+                  <c:v>4.8583112821746459</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.4541736829444307</c:v>
+                  <c:v>4.9694491219629535</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.7637719509261469</c:v>
+                  <c:v>5.1758479672840982</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.0495549675246565</c:v>
+                  <c:v>5.3663699783497716</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.3035843156122198</c:v>
+                  <c:v>5.5357228770748135</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.5337984123165729</c:v>
+                  <c:v>5.6891989415443822</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.7481356747654573</c:v>
+                  <c:v>5.8320904498436379</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.938657685831128</c:v>
+                  <c:v>5.9591051238874186</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.1133028626413264</c:v>
+                  <c:v>6.0755352417608846</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.2720712051960525</c:v>
+                  <c:v>6.1813808034640356</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.4229011306230461</c:v>
+                  <c:v>6.2819340870820302</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.5578542217945639</c:v>
+                  <c:v>6.371902814529709</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.6848688958383438</c:v>
+                  <c:v>6.4565792638922295</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.7960067356266549</c:v>
+                  <c:v>6.530671157084436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4383,70 +4383,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>5.6738757843219716</c:v>
+                  <c:v>3.6853234087354076</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.9294876145181901</c:v>
+                  <c:v>3.8528927858130899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1644949147236634</c:v>
+                  <c:v>4.007012655401808</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3825976876575172</c:v>
+                  <c:v>4.1500942369619356</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5865357991188178</c:v>
+                  <c:v>4.2839236554126003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.7784013787528279</c:v>
+                  <c:v>4.4098651911833375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.959832325123477</c:v>
+                  <c:v>4.528987215466536</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.1321377462682447</c:v>
+                  <c:v>4.642143851445061</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.2963823821997789</c:v>
+                  <c:v>4.7500299471340766</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.4534452355108964</c:v>
+                  <c:v>4.8532192625332211</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.748852554979444</c:v>
+                  <c:v>5.0473532707727546</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.0230106575775935</c:v>
+                  <c:v>5.2275831204841809</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.2793635912591714</c:v>
+                  <c:v>5.3961586681635607</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.5205411909695083</c:v>
+                  <c:v>5.5547984023410031</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.7486023171095635</c:v>
+                  <c:v>5.7048480754001423</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.9651925359911537</c:v>
+                  <c:v>5.8473835665086877</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.1716502400505622</c:v>
+                  <c:v>5.9832801270580438</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.3690803473031981</c:v>
+                  <c:v>6.113260482345054</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.5584068721060227</c:v>
+                  <c:v>6.2379291506394203</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.7404112988068015</c:v>
+                  <c:v>6.3577974992509292</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.9157611602767108</c:v>
+                  <c:v>6.4733024084377222</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.085031700506203</c:v>
+                  <c:v>6.5848204212288524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4748,70 +4748,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>5.6738757843219716</c:v>
+                  <c:v>3.6853234087354076</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.9294876145181901</c:v>
+                  <c:v>3.8528927858130899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1644949147236634</c:v>
+                  <c:v>4.007012655401808</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3825976876575172</c:v>
+                  <c:v>4.1500942369619356</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.5865357991188178</c:v>
+                  <c:v>4.2839236554126003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.7784013787528279</c:v>
+                  <c:v>4.4098651911833375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.959832325123477</c:v>
+                  <c:v>4.528987215466536</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.1321377462682447</c:v>
+                  <c:v>4.642143851445061</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.2963823821997789</c:v>
+                  <c:v>4.7500299471340766</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.4534452355108964</c:v>
+                  <c:v>4.8532192625332211</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.748852554979444</c:v>
+                  <c:v>5.0473532707727546</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.0230106575775935</c:v>
+                  <c:v>5.2275831204841809</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.2793635912591714</c:v>
+                  <c:v>5.3961586681635607</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.5205411909695083</c:v>
+                  <c:v>5.5547984023410031</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.7486023171095635</c:v>
+                  <c:v>5.7048480754001423</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.9651925359911537</c:v>
+                  <c:v>5.8473835665086877</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.1716502400505622</c:v>
+                  <c:v>5.9832801270580438</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.3690803473031981</c:v>
+                  <c:v>6.113260482345054</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.5584068721060227</c:v>
+                  <c:v>6.2379291506394203</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.7404112988068015</c:v>
+                  <c:v>6.3577974992509292</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.9157611602767108</c:v>
+                  <c:v>6.4733024084377222</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>10.085031700506203</c:v>
+                  <c:v>6.5848204212288524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4864,6 +4864,49 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" i="1"/>
+              <a:t>The</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" i="1" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" i="1"/>
+              <a:t>Big Planets</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" i="1"/>
+              <a:t>lower atmosphere</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.45406593406593404"/>
+          <c:y val="0.58922757728867503"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -4873,23 +4916,31 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]large!$B$9</c:f>
+              <c:f>bigPlanets!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Jupiter</c:v>
+                  <c:v>Uranus</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]large!$A$10:$A$36</c:f>
+              <c:f>bigPlanets!$A$10:$A$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
@@ -4977,90 +5028,90 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]large!$B$10:$B$36</c:f>
+              <c:f>bigPlanets!$B$10:$B$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>8.8388347648318447E-2</c:v>
+                  <c:v>0.11518039891077703</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19301011109426142</c:v>
+                  <c:v>0.24053685108630898</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.36535446722156006</c:v>
+                  <c:v>0.43901537805422175</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6266545330387997</c:v>
+                  <c:v>0.73013663336953272</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.1344296371667362</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.510197783647441</c:v>
+                  <c:v>1.6733272674058921</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1836601342771385</c:v>
+                  <c:v>2.3690848033478984</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0483121954711838</c:v>
+                  <c:v>3.244714338485835</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1335139409466128</c:v>
+                  <c:v>4.3239306405116915</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.4699931012516352</c:v>
+                  <c:v>5.6311055716183462</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.0897867163683941</c:v>
+                  <c:v>7.1912290972109245</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.0261896073239019</c:v>
+                  <c:v>9.0298754859319494</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.313708498984759</c:v>
+                  <c:v>11.173173681045817</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.988020829772934</c:v>
+                  <c:v>13.6477810796386</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.085937499999996</c:v>
+                  <c:v>16.480860135715833</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.645368967951278</c:v>
+                  <c:v>19.700057332372975</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24.705294220065468</c:v>
+                  <c:v>23.333484163056834</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29.305732230446868</c:v>
+                  <c:v>27.409699832973729</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34.487715593461225</c:v>
+                  <c:v>31.95769544581584</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40.293266066740784</c:v>
+                  <c:v>37.006879482829667</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>46.765371804359695</c:v>
+                  <c:v>42.587064414054993</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>53.947966093944359</c:v>
+                  <c:v>48.728454307591399</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>61.885907439018659</c:v>
+                  <c:v>55.461633323626884</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>70.624960850392526</c:v>
+                  <c:v>62.817554996877604</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>80.21178022896639</c:v>
+                  <c:v>70.827532224917093</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>90.693891737751414</c:v>
+                  <c:v>79.523227891273251</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>102.11967807382838</c:v>
+                  <c:v>88.936646061642634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5071,23 +5122,31 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]large!$C$9</c:f>
+              <c:f>bigPlanets!$C$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Saturn</c:v>
+                  <c:v>Neptune</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]large!$A$10:$A$36</c:f>
+              <c:f>bigPlanets!$A$10:$A$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
@@ -5175,90 +5234,296 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]large!$C$10:$C$36</c:f>
+              <c:f>bigPlanets!$C$10:$C$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>8.8388347648318447E-2</c:v>
+                  <c:v>0.13132073241977255</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19301011109426142</c:v>
+                  <c:v>0.27424349765508843</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.36535446722156006</c:v>
+                  <c:v>0.50053500018074182</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6266545330387997</c:v>
+                  <c:v>0.83245134039575341</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.2933982885997244</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.510197783647441</c:v>
+                  <c:v>1.9078121313326835</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1836601342771385</c:v>
+                  <c:v>2.7010668002738538</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0483121954711838</c:v>
+                  <c:v>3.6993990943977253</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1335139409466128</c:v>
+                  <c:v>4.9298469532489353</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.4699931012516352</c:v>
+                  <c:v>6.4201974901199277</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.0897867163683941</c:v>
+                  <c:v>8.1989425368777518</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.0261896073239019</c:v>
+                  <c:v>10.295240107568169</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.313708498984759</c:v>
+                  <c:v>12.738880617915406</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.988020829772934</c:v>
+                  <c:v>15.560256990177521</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17.085937499999996</c:v>
+                  <c:v>18.790337977615124</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.645368967951278</c:v>
+                  <c:v>22.460644190013024</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24.705294220065468</c:v>
+                  <c:v>26.603226409828668</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29.305732230446868</c:v>
+                  <c:v>31.250645869532885</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34.487715593461225</c:v>
+                  <c:v>36.435956222408024</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40.293266066740784</c:v>
+                  <c:v>42.192686986784949</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>46.765371804359695</c:v>
+                  <c:v>48.554828281103084</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>53.947966093944359</c:v>
+                  <c:v>55.556816696851882</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>61.885907439018659</c:v>
+                  <c:v>63.233522180257651</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>70.624960850392526</c:v>
+                  <c:v>71.620235812861438</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>80.21178022896639</c:v>
+                  <c:v>80.752658396904351</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>90.693891737751414</c:v>
+                  <c:v>90.66688976442984</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>102.11967807382838</c:v>
+                  <c:v>101.39941873981651</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>bigPlanets!$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Saturn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>bigPlanets!$A$10:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>bigPlanets!$E$10:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1.8059117984186492E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7713737878936164E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.883315723966997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11447801649663653</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17786705772934328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26236073875423882</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37144846156805444</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50873828896085393</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67794845590809472</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88290022313640903</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1275117636851295</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4157928634131551</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7518402755326294</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1398336094534969</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5840316623866091</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0887691223933924</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6584535864405927</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.2975628481565744</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0106424184704554</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.8023032488773572</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.6772196322165049</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.6401272599299483</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.6958214180429589</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.8491553067593287</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.105038470732964</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.46843532886464</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13.94436379395766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5266,26 +5531,34 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]large!$D$9</c:f>
+              <c:f>bigPlanets!$D$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Uranus</c:v>
+                  <c:v>Jupiter</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]large!$A$10:$A$36</c:f>
+              <c:f>bigPlanets!$A$10:$A$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
@@ -5373,288 +5646,90 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]large!$D$10:$D$36</c:f>
+              <c:f>bigPlanets!$D$10:$D$36</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>6.3188601678507263E-3</c:v>
+                  <c:v>9.1293799240082102E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3798243042607381E-2</c:v>
+                  <c:v>1.906532986565334E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6119096594703239E-2</c:v>
+                  <c:v>3.4797050684325051E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4799370880617438E-2</c:v>
+                  <c:v>5.7871780142298775E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.1489741984909025E-2</c:v>
+                  <c:v>8.9916680725967577E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10796364989913704</c:v>
+                  <c:v>0.13263055611731789</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15610929958220446</c:v>
+                  <c:v>0.18777739482141673</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21792305234368659</c:v>
+                  <c:v>0.25718117163199472</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.295503845129298</c:v>
+                  <c:v>0.34272155640709345</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3910483954677117</c:v>
+                  <c:v>0.44633030135037322</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.50684702308121199</c:v>
+                  <c:v>0.56998815050013107</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.64527996613445326</c:v>
+                  <c:v>0.71572216069003114</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.80881410148489297</c:v>
+                  <c:v>0.88560335313834793</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.081744635146022</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2214692634452817</c:v>
+                  <c:v>1.3062989456213221</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4759321007020845</c:v>
+                  <c:v>1.5614575883809396</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.7661751094537448</c:v>
+                  <c:v>1.8494487246947979</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.0950592358334803</c:v>
+                  <c:v>2.1725360021723978</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.4655178894254677</c:v>
+                  <c:v>2.5330173013778432</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.8805551948405905</c:v>
+                  <c:v>2.9332235848779047</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.3432443641220146</c:v>
+                  <c:v>3.3755178360277411</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.856726176666704</c:v>
+                  <c:v>3.8622940768618252</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.4242075553174036</c:v>
+                  <c:v>4.3959764561125185</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.0489602288888626</c:v>
+                  <c:v>4.9790183997193704</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.734319472719033</c:v>
+                  <c:v>5.6139018172883031</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.4836829199391186</c:v>
+                  <c:v>6.3031363588634957</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.3005094370799632</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]large!$E$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Neptune</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>[1]large!$A$10:$A$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>300</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>[1]large!$E$10:$E$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>1.4159299884333204E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0919098686693309E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.8527663465935083E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.10038641623302209</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.16019419144105451</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.24192491286747436</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.34980966959259063</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.48832190741341197</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.66216492358026935</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.87626112204315176</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.1357426505181638</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.4459431459389025</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.8123903851946499</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.2407996866861035</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.7370679428248916</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.3072681888231932</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.957644631896744</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.694608079244488</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.5247317141435683</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.4547471780808205</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7.4915409236396888</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8.6421508083088394</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9.9137629037895287</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11.313708498984759</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12.849461277826824</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>14.528634655571624</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>16.358979259257723</c:v>
+                  <c:v>7.0492587171254737</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5672,11 +5747,41 @@
           <c:min val="40"/>
         </c:scaling>
         <c:axPos val="t"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperature (K)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="228895744"/>
         <c:crossesAt val="1.0000000000000005E-4"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
+        <c:minorUnit val="10"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="228895744"/>
@@ -5687,7 +5792,24 @@
           <c:min val="1.0000000000000005E-4"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Pressure (bars)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="228715136"/>
@@ -5705,16 +5827,54 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.81837904877274958"/>
+          <c:y val="0.73526584183891341"/>
+          <c:w val="0.16147443108073029"/>
+          <c:h val="0.17949268992369721"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="1"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent5">
+        <a:lumMod val="20000"/>
+        <a:lumOff val="80000"/>
+      </a:schemeClr>
+    </a:solidFill>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId2"/>
 </c:chartSpace>
 </file>
 
@@ -5722,6 +5882,32 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Venus P-T thermodynamics</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33544364121720283"/>
+          <c:y val="0.91631205673758864"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -5730,8 +5916,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.1745006243151645"/>
           <c:y val="0.14410184708219884"/>
-          <c:w val="0.77693611599520929"/>
-          <c:h val="0.82131086417936072"/>
+          <c:w val="0.7792113443157489"/>
+          <c:h val="0.75606254537331774"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -5745,7 +5931,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>P</c:v>
+                  <c:v>P actual</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5889,7 +6075,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pm</c:v>
+                  <c:v>P model</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6223,7 +6409,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.49992222816808091"/>
           <c:y val="0.17886942870458949"/>
-          <c:w val="0.11015936147913251"/>
+          <c:w val="0.17406143344709898"/>
           <c:h val="0.13003674540682414"/>
         </c:manualLayout>
       </c:layout>
@@ -13178,25 +13364,60 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.35495</cdr:x>
-      <cdr:y>0.54468</cdr:y>
+      <cdr:x>0.48293</cdr:x>
+      <cdr:y>0.4766</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.35666</cdr:x>
-      <cdr:y>0.68298</cdr:y>
+      <cdr:x>0.55802</cdr:x>
+      <cdr:y>0.4766</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <cdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
         <cdr:cNvSpPr/>
       </cdr:nvSpPr>
       <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
-          <a:off x="1981199" y="2438400"/>
-          <a:ext cx="9525" cy="619125"/>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="2695574" y="2133600"/>
+          <a:ext cx="419100" cy="0"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
           <a:avLst/>
@@ -13230,37 +13451,113 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.31911</cdr:x>
-      <cdr:y>0.68936</cdr:y>
+      <cdr:x>0.54096</cdr:x>
+      <cdr:y>0.43191</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.46928</cdr:x>
-      <cdr:y>0.81702</cdr:y>
+      <cdr:x>0.68771</cdr:x>
+      <cdr:y>0.53191</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
-        <cdr:cNvPr id="4" name="TextBox 3"/>
+        <cdr:cNvPr id="6" name="TextBox 2"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1781174" y="3086100"/>
-          <a:ext cx="838200" cy="571500"/>
+          <a:off x="3019425" y="1933575"/>
+          <a:ext cx="819150" cy="447675"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </cdr:spPr>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Freezing point</a:t>
+            <a:t>Critical point</a:t>
           </a:r>
         </a:p>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>of CO2</a:t>
@@ -13689,10 +13986,10 @@
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13717,38 +14014,63 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.79986</cdr:x>
+      <cdr:y>0.60705</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99986</cdr:x>
+      <cdr:y>0.80664</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5546407" y="3937669"/>
+          <a:ext cx="1386841" cy="1294608"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>overlaid</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>adiabatic</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+            <a:t>profiles</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23473,7 +23795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
@@ -25242,7 +25564,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25258,8 +25580,7 @@
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
       <c r="D1" s="12">
-        <f>0.13*44*1.5/8.314</f>
-        <v>1.0319942266057256</v>
+        <v>0.66</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>29</v>
@@ -25274,7 +25595,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="12">
-        <v>0.33</v>
+        <v>0.33300000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18">
@@ -25312,11 +25633,11 @@
       </c>
       <c r="D5" s="12">
         <f>+$D$1*($A5)^$D$2</f>
-        <v>5.6738757843219716</v>
+        <v>3.6853234087354076</v>
       </c>
       <c r="E5">
-        <f>+$C5*44/8.314*1.5</f>
-        <v>5.6283377435650701</v>
+        <f>+$C5*44/8.314</f>
+        <v>3.7522251623767136</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -25332,11 +25653,11 @@
       </c>
       <c r="D6" s="12">
         <f t="shared" ref="D6:D26" si="1">+$D$1*($A6)^$D$2</f>
-        <v>5.9294876145181901</v>
+        <v>3.8528927858130899</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E26" si="2">+$C6*44/8.314*1.5</f>
-        <v>5.8347365888862148</v>
+        <f t="shared" ref="E6:E26" si="2">+$C6*44/8.314</f>
+        <v>3.88982439259081</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -25352,11 +25673,11 @@
       </c>
       <c r="D7" s="12">
         <f t="shared" si="1"/>
-        <v>6.1644949147236634</v>
+        <v>4.007012655401808</v>
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>6.0570122684628345</v>
+        <v>4.0380081789752227</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -25372,11 +25693,11 @@
       </c>
       <c r="D8" s="12">
         <f t="shared" si="1"/>
-        <v>6.3825976876575172</v>
+        <v>4.1500942369619356</v>
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>6.2792879480394523</v>
+        <v>4.1861919653596349</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -25392,11 +25713,11 @@
       </c>
       <c r="D9" s="12">
         <f t="shared" si="1"/>
-        <v>6.5865357991188178</v>
+        <v>4.2839236554126003</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>6.5015636276160693</v>
+        <v>4.3343757517440462</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -25412,11 +25733,11 @@
       </c>
       <c r="D10" s="12">
         <f t="shared" si="1"/>
-        <v>6.7784013787528279</v>
+        <v>4.4098651911833375</v>
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>6.7159008900649502</v>
+        <v>4.4772672600433001</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -25432,11 +25753,11 @@
       </c>
       <c r="D11" s="12">
         <f t="shared" si="1"/>
-        <v>6.959832325123477</v>
+        <v>4.528987215466536</v>
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>6.9143613182583588</v>
+        <v>4.6095742121722392</v>
       </c>
       <c r="G11">
         <v>1.28</v>
@@ -25462,11 +25783,11 @@
       </c>
       <c r="D12" s="12">
         <f t="shared" si="1"/>
-        <v>7.1321377462682447</v>
+        <v>4.642143851445061</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>7.1048833293240321</v>
+        <v>4.7365888862160217</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -25482,11 +25803,11 @@
       </c>
       <c r="D13" s="12">
         <f t="shared" si="1"/>
-        <v>7.2963823821997789</v>
+        <v>4.7500299471340766</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>7.2874669232619684</v>
+        <v>4.8583112821746459</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -25502,11 +25823,11 @@
       </c>
       <c r="D14" s="12">
         <f t="shared" si="1"/>
-        <v>7.4534452355108964</v>
+        <v>4.8532192625332211</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>7.4541736829444307</v>
+        <v>4.9694491219629535</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -25522,11 +25843,11 @@
       </c>
       <c r="D15" s="12">
         <f t="shared" si="1"/>
-        <v>7.748852554979444</v>
+        <v>5.0473532707727546</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>7.7637719509261469</v>
+        <v>5.1758479672840982</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -25542,11 +25863,11 @@
       </c>
       <c r="D16" s="12">
         <f t="shared" si="1"/>
-        <v>8.0230106575775935</v>
+        <v>5.2275831204841809</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>8.0495549675246565</v>
+        <v>5.3663699783497716</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -25562,11 +25883,11 @@
       </c>
       <c r="D17" s="12">
         <f t="shared" si="1"/>
-        <v>8.2793635912591714</v>
+        <v>5.3961586681635607</v>
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>8.3035843156122198</v>
+        <v>5.5357228770748135</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -25582,11 +25903,11 @@
       </c>
       <c r="D18" s="12">
         <f t="shared" si="1"/>
-        <v>8.5205411909695083</v>
+        <v>5.5547984023410031</v>
       </c>
       <c r="E18">
         <f t="shared" si="2"/>
-        <v>8.5337984123165729</v>
+        <v>5.6891989415443822</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -25602,11 +25923,11 @@
       </c>
       <c r="D19" s="12">
         <f t="shared" si="1"/>
-        <v>8.7486023171095635</v>
+        <v>5.7048480754001423</v>
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>8.7481356747654573</v>
+        <v>5.8320904498436379</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -25622,11 +25943,11 @@
       </c>
       <c r="D20" s="12">
         <f t="shared" si="1"/>
-        <v>8.9651925359911537</v>
+        <v>5.8473835665086877</v>
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>8.938657685831128</v>
+        <v>5.9591051238874186</v>
       </c>
       <c r="G20">
         <v>1.21</v>
@@ -25652,11 +25973,11 @@
       </c>
       <c r="D21" s="12">
         <f t="shared" si="1"/>
-        <v>9.1716502400505622</v>
+        <v>5.9832801270580438</v>
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
-        <v>9.1133028626413264</v>
+        <v>6.0755352417608846</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -25672,11 +25993,11 @@
       </c>
       <c r="D22" s="12">
         <f t="shared" si="1"/>
-        <v>9.3690803473031981</v>
+        <v>6.113260482345054</v>
       </c>
       <c r="E22">
         <f t="shared" si="2"/>
-        <v>9.2720712051960525</v>
+        <v>6.1813808034640356</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -25692,11 +26013,11 @@
       </c>
       <c r="D23" s="12">
         <f t="shared" si="1"/>
-        <v>9.5584068721060227</v>
+        <v>6.2379291506394203</v>
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
-        <v>9.4229011306230461</v>
+        <v>6.2819340870820302</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -25712,11 +26033,11 @@
       </c>
       <c r="D24" s="12">
         <f t="shared" si="1"/>
-        <v>9.7404112988068015</v>
+        <v>6.3577974992509292</v>
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
-        <v>9.5578542217945639</v>
+        <v>6.371902814529709</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -25732,11 +26053,11 @@
       </c>
       <c r="D25" s="12">
         <f t="shared" si="1"/>
-        <v>9.9157611602767108</v>
+        <v>6.4733024084377222</v>
       </c>
       <c r="E25">
         <f t="shared" si="2"/>
-        <v>9.6848688958383438</v>
+        <v>6.4565792638922295</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -25752,11 +26073,11 @@
       </c>
       <c r="D26" s="12">
         <f t="shared" si="1"/>
-        <v>10.085031700506203</v>
+        <v>6.5848204212288524</v>
       </c>
       <c r="E26">
         <f t="shared" si="2"/>
-        <v>9.7960067356266549</v>
+        <v>6.530671157084436</v>
       </c>
     </row>
   </sheetData>
@@ -25775,8 +26096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25797,20 +26118,20 @@
       <c r="E1" s="13">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="13"/>
       <c r="B2" s="13">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C2" s="13">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D2" s="13">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E2" s="13">
         <v>135</v>
@@ -25819,7 +26140,7 @@
     <row r="3" spans="1:7">
       <c r="A3" s="13"/>
       <c r="B3" s="13">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -25869,16 +26190,16 @@
     <row r="9" spans="1:7">
       <c r="A9" s="13"/>
       <c r="B9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="E9" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -25887,19 +26208,19 @@
       </c>
       <c r="B10" s="13">
         <f>+B$1*($A10/B$2)^$B$3</f>
-        <v>8.8388347648318447E-2</v>
+        <v>0.11518039891077703</v>
       </c>
       <c r="C10" s="13">
         <f t="shared" ref="C10:E10" si="0">+C$1*($A10/C$2)^$B$3</f>
-        <v>8.8388347648318447E-2</v>
+        <v>0.13132073241977255</v>
       </c>
       <c r="D10" s="13">
         <f t="shared" si="0"/>
-        <v>6.3188601678507263E-3</v>
+        <v>9.1293799240082102E-3</v>
       </c>
       <c r="E10" s="13">
         <f t="shared" si="0"/>
-        <v>1.4159299884333204E-2</v>
+        <v>1.8059117984186492E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -25909,19 +26230,19 @@
       </c>
       <c r="B11" s="13">
         <f t="shared" ref="B11:E36" si="1">+B$1*($A11/B$2)^$B$3</f>
-        <v>0.19301011109426142</v>
+        <v>0.24053685108630898</v>
       </c>
       <c r="C11" s="13">
         <f t="shared" si="1"/>
-        <v>0.19301011109426142</v>
+        <v>0.27424349765508843</v>
       </c>
       <c r="D11" s="13">
         <f t="shared" si="1"/>
-        <v>1.3798243042607381E-2</v>
+        <v>1.906532986565334E-2</v>
       </c>
       <c r="E11" s="13">
         <f t="shared" si="1"/>
-        <v>3.0919098686693309E-2</v>
+        <v>3.7713737878936164E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -25931,19 +26252,19 @@
       </c>
       <c r="B12" s="13">
         <f t="shared" si="1"/>
-        <v>0.36535446722156006</v>
+        <v>0.43901537805422175</v>
       </c>
       <c r="C12" s="13">
         <f t="shared" si="1"/>
-        <v>0.36535446722156006</v>
+        <v>0.50053500018074182</v>
       </c>
       <c r="D12" s="13">
         <f t="shared" si="1"/>
-        <v>2.6119096594703239E-2</v>
+        <v>3.4797050684325051E-2</v>
       </c>
       <c r="E12" s="13">
         <f t="shared" si="1"/>
-        <v>5.8527663465935083E-2</v>
+        <v>6.883315723966997E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -25953,19 +26274,19 @@
       </c>
       <c r="B13" s="13">
         <f t="shared" si="1"/>
-        <v>0.6266545330387997</v>
+        <v>0.73013663336953272</v>
       </c>
       <c r="C13" s="13">
         <f t="shared" si="1"/>
-        <v>0.6266545330387997</v>
+        <v>0.83245134039575341</v>
       </c>
       <c r="D13" s="13">
         <f t="shared" si="1"/>
-        <v>4.4799370880617438E-2</v>
+        <v>5.7871780142298775E-2</v>
       </c>
       <c r="E13" s="13">
         <f t="shared" si="1"/>
-        <v>0.10038641623302209</v>
+        <v>0.11447801649663653</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -25975,19 +26296,19 @@
       </c>
       <c r="B14" s="13">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.1344296371667362</v>
       </c>
       <c r="C14" s="13">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.2933982885997244</v>
       </c>
       <c r="D14" s="13">
         <f t="shared" si="1"/>
-        <v>7.1489741984909025E-2</v>
+        <v>8.9916680725967577E-2</v>
       </c>
       <c r="E14" s="13">
         <f t="shared" si="1"/>
-        <v>0.16019419144105451</v>
+        <v>0.17786705772934328</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -25997,19 +26318,19 @@
       </c>
       <c r="B15" s="13">
         <f t="shared" si="1"/>
-        <v>1.510197783647441</v>
+        <v>1.6733272674058921</v>
       </c>
       <c r="C15" s="13">
         <f t="shared" si="1"/>
-        <v>1.510197783647441</v>
+        <v>1.9078121313326835</v>
       </c>
       <c r="D15" s="13">
         <f t="shared" si="1"/>
-        <v>0.10796364989913704</v>
+        <v>0.13263055611731789</v>
       </c>
       <c r="E15" s="13">
         <f t="shared" si="1"/>
-        <v>0.24192491286747436</v>
+        <v>0.26236073875423882</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -26019,19 +26340,19 @@
       </c>
       <c r="B16" s="13">
         <f t="shared" si="1"/>
-        <v>2.1836601342771385</v>
+        <v>2.3690848033478984</v>
       </c>
       <c r="C16" s="13">
         <f t="shared" si="1"/>
-        <v>2.1836601342771385</v>
+        <v>2.7010668002738538</v>
       </c>
       <c r="D16" s="13">
         <f t="shared" si="1"/>
-        <v>0.15610929958220446</v>
+        <v>0.18777739482141673</v>
       </c>
       <c r="E16" s="13">
         <f t="shared" si="1"/>
-        <v>0.34980966959259063</v>
+        <v>0.37144846156805444</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -26041,19 +26362,19 @@
       </c>
       <c r="B17" s="13">
         <f t="shared" si="1"/>
-        <v>3.0483121954711838</v>
+        <v>3.244714338485835</v>
       </c>
       <c r="C17" s="13">
         <f t="shared" si="1"/>
-        <v>3.0483121954711838</v>
+        <v>3.6993990943977253</v>
       </c>
       <c r="D17" s="13">
         <f t="shared" si="1"/>
-        <v>0.21792305234368659</v>
+        <v>0.25718117163199472</v>
       </c>
       <c r="E17" s="13">
         <f t="shared" si="1"/>
-        <v>0.48832190741341197</v>
+        <v>0.50873828896085393</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -26063,19 +26384,19 @@
       </c>
       <c r="B18" s="13">
         <f t="shared" si="1"/>
-        <v>4.1335139409466128</v>
+        <v>4.3239306405116915</v>
       </c>
       <c r="C18" s="13">
         <f t="shared" si="1"/>
-        <v>4.1335139409466128</v>
+        <v>4.9298469532489353</v>
       </c>
       <c r="D18" s="13">
         <f t="shared" si="1"/>
-        <v>0.295503845129298</v>
+        <v>0.34272155640709345</v>
       </c>
       <c r="E18" s="13">
         <f t="shared" si="1"/>
-        <v>0.66216492358026935</v>
+        <v>0.67794845590809472</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -26085,19 +26406,19 @@
       </c>
       <c r="B19" s="13">
         <f t="shared" si="1"/>
-        <v>5.4699931012516352</v>
+        <v>5.6311055716183462</v>
       </c>
       <c r="C19" s="13">
         <f t="shared" si="1"/>
-        <v>5.4699931012516352</v>
+        <v>6.4201974901199277</v>
       </c>
       <c r="D19" s="13">
         <f t="shared" si="1"/>
-        <v>0.3910483954677117</v>
+        <v>0.44633030135037322</v>
       </c>
       <c r="E19" s="13">
         <f t="shared" si="1"/>
-        <v>0.87626112204315176</v>
+        <v>0.88290022313640903</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -26107,19 +26428,19 @@
       </c>
       <c r="B20" s="13">
         <f t="shared" si="1"/>
-        <v>7.0897867163683941</v>
+        <v>7.1912290972109245</v>
       </c>
       <c r="C20" s="13">
         <f t="shared" si="1"/>
-        <v>7.0897867163683941</v>
+        <v>8.1989425368777518</v>
       </c>
       <c r="D20" s="13">
         <f t="shared" si="1"/>
-        <v>0.50684702308121199</v>
+        <v>0.56998815050013107</v>
       </c>
       <c r="E20" s="13">
         <f t="shared" si="1"/>
-        <v>1.1357426505181638</v>
+        <v>1.1275117636851295</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -26129,19 +26450,19 @@
       </c>
       <c r="B21" s="13">
         <f t="shared" si="1"/>
-        <v>9.0261896073239019</v>
+        <v>9.0298754859319494</v>
       </c>
       <c r="C21" s="13">
         <f t="shared" si="1"/>
-        <v>9.0261896073239019</v>
+        <v>10.295240107568169</v>
       </c>
       <c r="D21" s="13">
         <f t="shared" si="1"/>
-        <v>0.64527996613445326</v>
+        <v>0.71572216069003114</v>
       </c>
       <c r="E21" s="13">
         <f t="shared" si="1"/>
-        <v>1.4459431459389025</v>
+        <v>1.4157928634131551</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -26151,19 +26472,19 @@
       </c>
       <c r="B22" s="13">
         <f t="shared" si="1"/>
-        <v>11.313708498984759</v>
+        <v>11.173173681045817</v>
       </c>
       <c r="C22" s="13">
         <f t="shared" si="1"/>
-        <v>11.313708498984759</v>
+        <v>12.738880617915406</v>
       </c>
       <c r="D22" s="13">
         <f t="shared" si="1"/>
-        <v>0.80881410148489297</v>
+        <v>0.88560335313834793</v>
       </c>
       <c r="E22" s="13">
         <f t="shared" si="1"/>
-        <v>1.8123903851946499</v>
+        <v>1.7518402755326294</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -26173,19 +26494,19 @@
       </c>
       <c r="B23" s="13">
         <f t="shared" si="1"/>
-        <v>13.988020829772934</v>
+        <v>13.6477810796386</v>
       </c>
       <c r="C23" s="13">
         <f t="shared" si="1"/>
-        <v>13.988020829772934</v>
+        <v>15.560256990177521</v>
       </c>
       <c r="D23" s="13">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.081744635146022</v>
       </c>
       <c r="E23" s="13">
         <f t="shared" si="1"/>
-        <v>2.2407996866861035</v>
+        <v>2.1398336094534969</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -26195,19 +26516,19 @@
       </c>
       <c r="B24" s="13">
         <f t="shared" si="1"/>
-        <v>17.085937499999996</v>
+        <v>16.480860135715833</v>
       </c>
       <c r="C24" s="13">
         <f t="shared" si="1"/>
-        <v>17.085937499999996</v>
+        <v>18.790337977615124</v>
       </c>
       <c r="D24" s="13">
         <f t="shared" si="1"/>
-        <v>1.2214692634452817</v>
+        <v>1.3062989456213221</v>
       </c>
       <c r="E24" s="13">
         <f t="shared" si="1"/>
-        <v>2.7370679428248916</v>
+        <v>2.5840316623866091</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -26217,19 +26538,19 @@
       </c>
       <c r="B25" s="13">
         <f t="shared" si="1"/>
-        <v>20.645368967951278</v>
+        <v>19.700057332372975</v>
       </c>
       <c r="C25" s="13">
         <f t="shared" si="1"/>
-        <v>20.645368967951278</v>
+        <v>22.460644190013024</v>
       </c>
       <c r="D25" s="13">
         <f t="shared" si="1"/>
-        <v>1.4759321007020845</v>
+        <v>1.5614575883809396</v>
       </c>
       <c r="E25" s="13">
         <f t="shared" si="1"/>
-        <v>3.3072681888231932</v>
+        <v>3.0887691223933924</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -26239,19 +26560,19 @@
       </c>
       <c r="B26" s="13">
         <f t="shared" si="1"/>
-        <v>24.705294220065468</v>
+        <v>23.333484163056834</v>
       </c>
       <c r="C26" s="13">
         <f t="shared" si="1"/>
-        <v>24.705294220065468</v>
+        <v>26.603226409828668</v>
       </c>
       <c r="D26" s="13">
         <f t="shared" si="1"/>
-        <v>1.7661751094537448</v>
+        <v>1.8494487246947979</v>
       </c>
       <c r="E26" s="13">
         <f t="shared" si="1"/>
-        <v>3.957644631896744</v>
+        <v>3.6584535864405927</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -26261,19 +26582,19 @@
       </c>
       <c r="B27" s="13">
         <f t="shared" si="1"/>
-        <v>29.305732230446868</v>
+        <v>27.409699832973729</v>
       </c>
       <c r="C27" s="13">
         <f t="shared" si="1"/>
-        <v>29.305732230446868</v>
+        <v>31.250645869532885</v>
       </c>
       <c r="D27" s="13">
         <f t="shared" si="1"/>
-        <v>2.0950592358334803</v>
+        <v>2.1725360021723978</v>
       </c>
       <c r="E27" s="13">
         <f t="shared" si="1"/>
-        <v>4.694608079244488</v>
+        <v>4.2975628481565744</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -26283,19 +26604,19 @@
       </c>
       <c r="B28" s="13">
         <f t="shared" si="1"/>
-        <v>34.487715593461225</v>
+        <v>31.95769544581584</v>
       </c>
       <c r="C28" s="13">
         <f t="shared" si="1"/>
-        <v>34.487715593461225</v>
+        <v>36.435956222408024</v>
       </c>
       <c r="D28" s="13">
         <f t="shared" si="1"/>
-        <v>2.4655178894254677</v>
+        <v>2.5330173013778432</v>
       </c>
       <c r="E28" s="13">
         <f t="shared" si="1"/>
-        <v>5.5247317141435683</v>
+        <v>5.0106424184704554</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -26305,19 +26626,19 @@
       </c>
       <c r="B29" s="13">
         <f t="shared" si="1"/>
-        <v>40.293266066740784</v>
+        <v>37.006879482829667</v>
       </c>
       <c r="C29" s="13">
         <f t="shared" si="1"/>
-        <v>40.293266066740784</v>
+        <v>42.192686986784949</v>
       </c>
       <c r="D29" s="13">
         <f t="shared" si="1"/>
-        <v>2.8805551948405905</v>
+        <v>2.9332235848779047</v>
       </c>
       <c r="E29" s="13">
         <f t="shared" si="1"/>
-        <v>6.4547471780808205</v>
+        <v>5.8023032488773572</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -26327,19 +26648,19 @@
       </c>
       <c r="B30" s="13">
         <f t="shared" si="1"/>
-        <v>46.765371804359695</v>
+        <v>42.587064414054993</v>
       </c>
       <c r="C30" s="13">
         <f t="shared" si="1"/>
-        <v>46.765371804359695</v>
+        <v>48.554828281103084</v>
       </c>
       <c r="D30" s="13">
         <f t="shared" si="1"/>
-        <v>3.3432443641220146</v>
+        <v>3.3755178360277411</v>
       </c>
       <c r="E30" s="13">
         <f t="shared" si="1"/>
-        <v>7.4915409236396888</v>
+        <v>6.6772196322165049</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -26349,19 +26670,19 @@
       </c>
       <c r="B31" s="13">
         <f t="shared" si="1"/>
-        <v>53.947966093944359</v>
+        <v>48.728454307591399</v>
       </c>
       <c r="C31" s="13">
         <f t="shared" si="1"/>
-        <v>53.947966093944359</v>
+        <v>55.556816696851882</v>
       </c>
       <c r="D31" s="13">
         <f t="shared" si="1"/>
-        <v>3.856726176666704</v>
+        <v>3.8622940768618252</v>
       </c>
       <c r="E31" s="13">
         <f t="shared" si="1"/>
-        <v>8.6421508083088394</v>
+        <v>7.6401272599299483</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -26371,19 +26692,19 @@
       </c>
       <c r="B32" s="13">
         <f t="shared" si="1"/>
-        <v>61.885907439018659</v>
+        <v>55.461633323626884</v>
       </c>
       <c r="C32" s="13">
         <f t="shared" si="1"/>
-        <v>61.885907439018659</v>
+        <v>63.233522180257651</v>
       </c>
       <c r="D32" s="13">
         <f t="shared" si="1"/>
-        <v>4.4242075553174036</v>
+        <v>4.3959764561125185</v>
       </c>
       <c r="E32" s="13">
         <f t="shared" si="1"/>
-        <v>9.9137629037895287</v>
+        <v>8.6958214180429589</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -26393,19 +26714,19 @@
       </c>
       <c r="B33" s="13">
         <f t="shared" si="1"/>
-        <v>70.624960850392526</v>
+        <v>62.817554996877604</v>
       </c>
       <c r="C33" s="13">
         <f t="shared" si="1"/>
-        <v>70.624960850392526</v>
+        <v>71.620235812861438</v>
       </c>
       <c r="D33" s="13">
         <f t="shared" si="1"/>
-        <v>5.0489602288888626</v>
+        <v>4.9790183997193704</v>
       </c>
       <c r="E33" s="13">
         <f t="shared" si="1"/>
-        <v>11.313708498984759</v>
+        <v>9.8491553067593287</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -26415,19 +26736,19 @@
       </c>
       <c r="B34" s="13">
         <f t="shared" si="1"/>
-        <v>80.21178022896639</v>
+        <v>70.827532224917093</v>
       </c>
       <c r="C34" s="13">
         <f t="shared" si="1"/>
-        <v>80.21178022896639</v>
+        <v>80.752658396904351</v>
       </c>
       <c r="D34" s="13">
         <f t="shared" si="1"/>
-        <v>5.734319472719033</v>
+        <v>5.6139018172883031</v>
       </c>
       <c r="E34" s="13">
         <f t="shared" si="1"/>
-        <v>12.849461277826824</v>
+        <v>11.105038470732964</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -26437,19 +26758,19 @@
       </c>
       <c r="B35" s="13">
         <f t="shared" si="1"/>
-        <v>90.693891737751414</v>
+        <v>79.523227891273251</v>
       </c>
       <c r="C35" s="13">
         <f t="shared" si="1"/>
-        <v>90.693891737751414</v>
+        <v>90.66688976442984</v>
       </c>
       <c r="D35" s="13">
         <f t="shared" si="1"/>
-        <v>6.4836829199391186</v>
+        <v>6.3031363588634957</v>
       </c>
       <c r="E35" s="13">
         <f t="shared" si="1"/>
-        <v>14.528634655571624</v>
+        <v>12.46843532886464</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -26459,19 +26780,19 @@
       </c>
       <c r="B36" s="13">
         <f t="shared" si="1"/>
-        <v>102.11967807382838</v>
+        <v>88.936646061642634</v>
       </c>
       <c r="C36" s="13">
         <f t="shared" si="1"/>
-        <v>102.11967807382838</v>
+        <v>101.39941873981651</v>
       </c>
       <c r="D36" s="13">
         <f t="shared" si="1"/>
-        <v>7.3005094370799632</v>
+        <v>7.0492587171254737</v>
       </c>
       <c r="E36" s="13">
         <f t="shared" si="1"/>
-        <v>16.358979259257723</v>
+        <v>13.94436379395766</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -27205,8 +27526,11 @@
       <c r="E109" s="13"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -27215,7 +27539,7 @@
   <dimension ref="A2:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27244,10 +27568,10 @@
         <v>38</v>
       </c>
       <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
         <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7">

--- a/dynamic_context_server/ref/foundation/climate/climate_planets.xlsx
+++ b/dynamic_context_server/ref/foundation/climate/climate_planets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="195" windowWidth="17100" windowHeight="8265" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="195" windowWidth="17100" windowHeight="8265" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Mars English" sheetId="3" r:id="rId1"/>
@@ -16,10 +16,9 @@
     <sheet name="specific heat" sheetId="10" r:id="rId7"/>
     <sheet name="bigPlanets" sheetId="11" r:id="rId8"/>
     <sheet name="venusWiki" sheetId="12" r:id="rId9"/>
+    <sheet name="allPlanets" sheetId="14" r:id="rId10"/>
+    <sheet name="mars" sheetId="15" r:id="rId11"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Gravity" localSheetId="5">'Venus_Pressure (2)'!$F$2</definedName>
     <definedName name="Gravity">Venus_1.5!$F$2</definedName>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
   <si>
     <t>Layer</t>
   </si>
@@ -259,6 +258,30 @@
   <si>
     <t>P actual</t>
   </si>
+  <si>
+    <t>Uranus: H2, n=3.5</t>
+  </si>
+  <si>
+    <t>Neptune: H2, n=3.5</t>
+  </si>
+  <si>
+    <t>Jupiter: H2, n=3.5</t>
+  </si>
+  <si>
+    <t>Saturn: H2, n=3.5</t>
+  </si>
+  <si>
+    <t>Mars: CO2, n=6</t>
+  </si>
+  <si>
+    <t>Titan: N2, n=5.25</t>
+  </si>
+  <si>
+    <t>Earth, N2/O2, n=5.25</t>
+  </si>
+  <si>
+    <t>Mars: CO2, n=4.4</t>
+  </si>
 </sst>
 </file>
 
@@ -393,6 +416,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEB15EB"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3051,24 +3079,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="85288448"/>
-        <c:axId val="85419904"/>
+        <c:axId val="195263488"/>
+        <c:axId val="263609728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85288448"/>
+        <c:axId val="195263488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="t"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85419904"/>
+        <c:crossAx val="263609728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85419904"/>
+        <c:axId val="263609728"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3076,21 +3103,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85288448"/>
+        <c:crossAx val="195263488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4029,12 +4055,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="210385152"/>
-        <c:axId val="210449920"/>
+        <c:axId val="228368384"/>
+        <c:axId val="228370304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="210385152"/>
+        <c:axId val="228368384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -4061,12 +4086,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210449920"/>
+        <c:crossAx val="228370304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="210449920"/>
+        <c:axId val="228370304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4093,7 +4118,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210385152"/>
+        <c:crossAx val="228368384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4113,8 +4138,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.52785659145547981"/>
-          <c:y val="0.39494450434146466"/>
-          <c:w val="0.32196414319683414"/>
+          <c:y val="0.39494450434146477"/>
+          <c:w val="0.32196414319683425"/>
           <c:h val="8.0368503937007854E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -4124,7 +4149,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4452,23 +4477,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="184179712"/>
-        <c:axId val="184178176"/>
+        <c:axId val="228639488"/>
+        <c:axId val="228641024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="184179712"/>
+        <c:axId val="228639488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184178176"/>
+        <c:crossAx val="228641024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="184178176"/>
+        <c:axId val="228641024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4476,20 +4501,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184179712"/>
+        <c:crossAx val="228639488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4817,23 +4841,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="195162496"/>
-        <c:axId val="194194432"/>
+        <c:axId val="228702464"/>
+        <c:axId val="228704256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195162496"/>
+        <c:axId val="228702464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194194432"/>
+        <c:crossAx val="228704256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="194194432"/>
+        <c:axId val="228704256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4841,20 +4865,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195162496"/>
+        <c:crossAx val="228702464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5735,12 +5758,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="228715136"/>
-        <c:axId val="228895744"/>
+        <c:axId val="228887552"/>
+        <c:axId val="230966400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="228715136"/>
+        <c:axId val="228887552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -5777,19 +5799,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="228895744"/>
-        <c:crossesAt val="1.0000000000000005E-4"/>
+        <c:crossAx val="230966400"/>
+        <c:crossesAt val="1.0000000000000007E-4"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
         <c:minorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="228895744"/>
+        <c:axId val="230966400"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="maxMin"/>
           <c:max val="10"/>
-          <c:min val="1.0000000000000005E-4"/>
+          <c:min val="1.0000000000000007E-4"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:title>
@@ -5812,7 +5834,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="228715136"/>
+        <c:crossAx val="228887552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5833,7 +5855,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.81837904877274958"/>
           <c:y val="0.73526584183891341"/>
-          <c:w val="0.16147443108073029"/>
+          <c:w val="0.16147443108073031"/>
           <c:h val="0.17949268992369721"/>
         </c:manualLayout>
       </c:layout>
@@ -5871,7 +5893,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId2"/>
@@ -5902,8 +5924,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33544364121720283"/>
-          <c:y val="0.91631205673758864"/>
+          <c:x val="0.33544364121720294"/>
+          <c:y val="0.91631205673758853"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -5915,9 +5937,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.1745006243151645"/>
-          <c:y val="0.14410184708219884"/>
+          <c:y val="0.14410184708219886"/>
           <c:w val="0.7792113443157489"/>
-          <c:h val="0.75606254537331774"/>
+          <c:h val="0.75606254537331763"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -6303,11 +6325,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="183892608"/>
-        <c:axId val="5430272"/>
+        <c:axId val="231051264"/>
+        <c:axId val="231053184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="183892608"/>
+        <c:axId val="231051264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6344,19 +6366,19 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.40830417528866914"/>
+              <c:x val="0.4083041752886693"/>
               <c:y val="1.767174847824873E-2"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="5430272"/>
+        <c:crossAx val="231053184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="5430272"/>
+        <c:axId val="231053184"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="maxMin"/>
@@ -6396,7 +6418,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183892608"/>
+        <c:crossAx val="231051264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6407,10 +6429,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.49992222816808091"/>
-          <c:y val="0.17886942870458949"/>
-          <c:w val="0.17406143344709898"/>
-          <c:h val="0.13003674540682414"/>
+          <c:x val="0.49992222816808096"/>
+          <c:y val="0.17886942870458947"/>
+          <c:w val="0.17406143344709904"/>
+          <c:h val="0.13003674540682417"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -6436,10 +6458,2030 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" i="1"/>
+              <a:t>lower atmosphere</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.58615976912838497"/>
+          <c:y val="0.19602318130423288"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12904143498650344"/>
+          <c:y val="0.17492836076807755"/>
+          <c:w val="0.58576494881267804"/>
+          <c:h val="0.78036881048600337"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>allPlanets!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uranus: H2, n=3.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>allPlanets!$A$10:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>allPlanets!$B$10:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0.10103978921570313</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22063655968609616</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41764937731341639</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71635055540615489</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1431347219853294</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7263595235526783</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4962177205073446</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4846315140944419</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7251633097064918</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.2529390430609579</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.1045813669510665</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.318150747355084</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.933093019610002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.990192302367483</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.531528413921222</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23.600438115463543</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28.241479639820309</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33.500400065828394</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39.424105176840413</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>46.060631503084643</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>53.459120296117291</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>61.6697932224751</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>70.743929595112405</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>80.733844986938223</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>91.692871091987882</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>103.67533671740209</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>116.73654980415721</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>allPlanets!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neptune: H2, n=3.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>allPlanets!$A$10:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>allPlanets!$C$10:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>0.10103978921570313</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22063655968609616</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41764937731341639</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71635055540615489</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1431347219853294</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7263595235526783</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4962177205073446</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4846315140944419</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7251633097064918</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.2529390430609579</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.1045813669510665</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.318150747355084</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.933093019610002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.990192302367483</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.531528413921222</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23.600438115463543</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28.241479639820309</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33.500400065828394</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39.424105176840413</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>46.060631503084643</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>53.459120296117291</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>61.6697932224751</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>70.743929595112405</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>80.733844986938223</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>91.692871091987882</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>103.67533671740209</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>116.73654980415721</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>allPlanets!$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Saturn: H2, n=3.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>allPlanets!$A$10:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>allPlanets!$E$10:$E$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1.802656843934175E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9363898858809046E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4513071951447379E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12780452546295096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20394734055971125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30800082169406584</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44535167707208428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.62169516546208281</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84301917542255311</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1155905458802389</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4459431459389025</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.840867365801415</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3074007602357445</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8528196479260357</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4846315140944419</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.2105680958876537</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.0385790539275561</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.9768261515546568</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.0336778772661033</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.2177044567766409</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.5376732097852628</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.002544213465427</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.621466240312309</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.403772942571276</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.358979259257723</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18.496778024924765</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20.827036761971158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>allPlanets!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jupiter: H2, n=3.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>allPlanets!$A$10:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>allPlanets!$D$10:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>6.8680217447939975E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4997425285455184E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.838906362883048E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8692809333969814E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7702795985288023E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11734659028019127</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16967649791494324</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2368623806241629</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32118559045571865</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.42503375798748871</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.55089625080117866</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.70136016958241654</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.87910678333363224</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0869083287738057</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3276251157798822</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6042028929577146</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9196704365382631</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.2771373327018933</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.6797919287573553</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.1308994327648887</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.6338001444903023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.1919078032189958</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.808708040098483</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.4877569244270052</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.232679594748137</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.0471689668102977</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.934984511453977</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>allPlanets!$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mars: CO2, n=6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="EB15EB"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>allPlanets!$A$10:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>allPlanets!$F$10:$F$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>8.779149519890261E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3489797668038406E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0000000000000006E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5216263717421133E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.618655692729767E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1390624999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.143347050754458E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7970700445816167E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.4000000000000038E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0345526834705078E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6138408779149525E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.44140625E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5959396433470509E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.1735187328532208E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.2899999999999994E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0083565029149518E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3717421124828531E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8382656249999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4301248285322347E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.1729228609396446E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.0960000000000024E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.2327808856310037E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.6211371742112496E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.3037656250000026E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0328581618655696E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2749128107853221E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>allPlanets!$G$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Earth, N2/O2, n=5.25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925">
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>allPlanets!$A$10:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>allPlanets!$G$10:$G$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>2.5464102114348409E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2168609085168847E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1399689759245532E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.807044281703614E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.690269251692459E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7984012149162524E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1268958257267181E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.1573310507209954E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.1435722625746026E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.239698319058288E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8293028038192247E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.6278012976678578E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.6875958849295253E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.0695597958473892E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.843748865305424E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.0901242129371257E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.11899285644244864</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.15373215321576661</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19626031295813953</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.24784750525787705</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.30990061043816075</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.38397102953171897</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.47176257967392959</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.57513947222667361</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.69613437113479992</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.83695652918639418</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>allPlanets!$H$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Titan: N2, n=5.25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>allPlanets!$A$10:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>allPlanets!$H$10:$H$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1.6917604906072563E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4590421368170855E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14217328175708452</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31936596687629981</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64379315593940567</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1948051841737835</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0774181600648114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4263799561483359</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.4103513033219661</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.2361931594410223</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.15335296316861</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.458343485262589</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.499308852262331</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.680673007327286</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45.467866433971196</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>60.392127431401228</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>79.055374617117934</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>102.1351476594448</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>130.38961352173806</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>164.66263574029023</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>205.88890446639147</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>255.0991251851475</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>313.42526418380811</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>382.10584898398406</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>462.49132207806468</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>556.04944642264809</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>664.37076124274188</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="266785536"/>
+        <c:axId val="266787456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="266785536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:axPos val="t"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperature (K)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="266787456"/>
+        <c:crossesAt val="1.0000000000000011E-4"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
+        <c:minorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="266787456"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="maxMin"/>
+          <c:max val="1"/>
+          <c:min val="1.0000000000000002E-4"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Pressure (bars)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="266785536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73307099053376623"/>
+          <c:y val="0.38873122093209089"/>
+          <c:w val="0.25333333333333335"/>
+          <c:h val="0.52948116486547525"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="1"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent5">
+        <a:lumMod val="20000"/>
+        <a:lumOff val="80000"/>
+      </a:schemeClr>
+    </a:solidFill>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId2"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000" i="1"/>
+              <a:t>lower atmosphere</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.58615976912838497"/>
+          <c:y val="0.19602318130423291"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24255215086066048"/>
+          <c:y val="0.17492836076807755"/>
+          <c:w val="0.70089217763442213"/>
+          <c:h val="0.78036881048600359"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>mars!$F$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mars: CO2, n=4.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="EB15EB"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>mars!$A$10:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>mars!$F$10:$F$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1.3508790319049714E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6059567870363927E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0429987376713599E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5848343474543598E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8519929105533431E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7887210598686667E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6129416102395692E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1579246879181435E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6980480737110028E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.41492278428799E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3459223339689961E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5326693445509053E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.0211635311093533E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.8619042982693227E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0110008513570339E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.282532393355993E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6072538686341203E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9921287156637289E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4446252572595589E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9727266555067394E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.584940585814953E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.2903086503006775E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.0984155484379325E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0193980209926915E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.0639535816060832E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.2433490489675926E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.5694288912843463E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="266656384"/>
+        <c:axId val="267367168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="266656384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="260"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:axPos val="t"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperature (K)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="267367168"/>
+        <c:crossesAt val="1.0000000000000015E-4"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
+        <c:minorUnit val="10"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="267367168"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="maxMin"/>
+          <c:max val="1.0000000000000002E-2"/>
+          <c:min val="1.0000000000000007E-4"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Pressure (bars)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.8500669344042837E-2"/>
+              <c:y val="0.4123485844056588"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="266656384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18330795735841071"/>
+          <c:y val="0.61975426320670901"/>
+          <c:w val="0.25333333333333324"/>
+          <c:h val="0.25225351413593355"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="1"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent5">
+        <a:lumMod val="20000"/>
+        <a:lumOff val="80000"/>
+      </a:schemeClr>
+    </a:solidFill>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -6612,12 +8654,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="85483904"/>
-        <c:axId val="85485440"/>
+        <c:axId val="226095488"/>
+        <c:axId val="226097024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85483904"/>
+        <c:axId val="226095488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="350"/>
@@ -6626,12 +8667,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85485440"/>
+        <c:crossAx val="226097024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85485440"/>
+        <c:axId val="226097024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15000"/>
@@ -6641,7 +8682,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85483904"/>
+        <c:crossAx val="226095488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6655,7 +8696,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6673,7 +8714,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.15905796150481191"/>
           <c:y val="0.21415135608048994"/>
-          <c:w val="0.70596281714785658"/>
+          <c:w val="0.70596281714785669"/>
           <c:h val="0.73444808982210552"/>
         </c:manualLayout>
       </c:layout>
@@ -7039,12 +9080,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="170398080"/>
-        <c:axId val="170400384"/>
+        <c:axId val="227386496"/>
+        <c:axId val="227388416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="170398080"/>
+        <c:axId val="227386496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -7071,12 +9111,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170400384"/>
+        <c:crossAx val="227388416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="170400384"/>
+        <c:axId val="227388416"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -7101,7 +9141,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170398080"/>
+        <c:crossAx val="227386496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7113,9 +9153,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.19725000000000001"/>
-          <c:y val="0.60571376494604834"/>
+          <c:y val="0.60571376494604823"/>
           <c:w val="0.25830555555555557"/>
-          <c:h val="0.3348687664041996"/>
+          <c:h val="0.33486876640419971"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -7124,7 +9164,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8040,24 +10080,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="175121920"/>
-        <c:axId val="175251840"/>
+        <c:axId val="227484416"/>
+        <c:axId val="227485952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="175121920"/>
+        <c:axId val="227484416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="t"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175251840"/>
+        <c:crossAx val="227485952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="175251840"/>
+        <c:axId val="227485952"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -8065,7 +10104,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175121920"/>
+        <c:crossAx val="227484416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8079,7 +10118,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8098,7 +10137,7 @@
           <c:x val="0.11940036776863759"/>
           <c:y val="3.2534856219895596E-2"/>
           <c:w val="0.81040662807422659"/>
-          <c:h val="0.84942579499662374"/>
+          <c:h val="0.84942579499662363"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -9129,17 +11168,16 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="182874880"/>
-        <c:axId val="183892992"/>
+        <c:axId val="227614080"/>
+        <c:axId val="227628544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="182874880"/>
+        <c:axId val="227614080"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:max val="10000"/>
-          <c:min val="1.0000000000000004E-2"/>
+          <c:min val="1.0000000000000005E-2"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:title>
@@ -9162,12 +11200,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183892992"/>
+        <c:crossAx val="227628544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="183892992"/>
+        <c:axId val="227628544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -9195,13 +11233,13 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="4.2361191368994154E-2"/>
-              <c:y val="0.33229314387610387"/>
+              <c:y val="0.33229314387610381"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182874880"/>
+        <c:crossAx val="227614080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9220,9 +11258,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.64177944409035637"/>
+          <c:x val="0.64177944409035659"/>
           <c:y val="0.32485949624153238"/>
-          <c:w val="0.21894649275276096"/>
+          <c:w val="0.21894649275276104"/>
           <c:h val="0.1483726226529376"/>
         </c:manualLayout>
       </c:layout>
@@ -9232,7 +11270,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9249,9 +11287,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.19976873728935191"/>
-          <c:y val="0.13226314452628907"/>
-          <c:w val="0.72683857708649402"/>
-          <c:h val="0.84898871512028751"/>
+          <c:y val="0.13226314452628912"/>
+          <c:w val="0.72683857708649413"/>
+          <c:h val="0.84898871512028762"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -10054,12 +12092,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="193314176"/>
-        <c:axId val="193334272"/>
+        <c:axId val="227934976"/>
+        <c:axId val="227936896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="193314176"/>
+        <c:axId val="227934976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="800"/>
@@ -10103,12 +12140,12 @@
             <a:prstDash val="sysDot"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="193334272"/>
+        <c:crossAx val="227936896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193334272"/>
+        <c:axId val="227936896"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="maxMin"/>
@@ -10154,7 +12191,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193314176"/>
+        <c:crossAx val="227934976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10165,10 +12202,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.52600455651282008"/>
+          <c:x val="0.52600455651282019"/>
           <c:y val="0.14313460817397822"/>
           <c:w val="0.17238091647274997"/>
-          <c:h val="0.16666279618273525"/>
+          <c:h val="0.16666279618273527"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -10177,7 +12214,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11227,12 +13264,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="194209664"/>
-        <c:axId val="194523136"/>
+        <c:axId val="228089856"/>
+        <c:axId val="228091776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="194209664"/>
+        <c:axId val="228089856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -11259,12 +13295,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194523136"/>
+        <c:crossAx val="228091776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="194523136"/>
+        <c:axId val="228091776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -11291,7 +13327,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194209664"/>
+        <c:crossAx val="228089856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11311,8 +13347,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.52785659145547981"/>
-          <c:y val="0.39494450434146444"/>
-          <c:w val="0.32196414319683397"/>
+          <c:y val="0.39494450434146455"/>
+          <c:w val="0.32196414319683403"/>
           <c:h val="8.0368503937007854E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -11322,7 +13358,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12255,12 +14291,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="195195648"/>
-        <c:axId val="195197952"/>
+        <c:axId val="228126080"/>
+        <c:axId val="228288000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195195648"/>
+        <c:axId val="228126080"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -12288,12 +14323,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195197952"/>
+        <c:crossAx val="228288000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195197952"/>
+        <c:axId val="228288000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -12327,7 +14362,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195195648"/>
+        <c:crossAx val="228126080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12346,9 +14381,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.64177944409035681"/>
+          <c:x val="0.64177944409035692"/>
           <c:y val="0.32485949624153238"/>
-          <c:w val="0.21894649275276112"/>
+          <c:w val="0.21894649275276123"/>
           <c:h val="0.1483726226529376"/>
         </c:manualLayout>
       </c:layout>
@@ -12358,7 +14393,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12375,8 +14410,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.19976873728935191"/>
-          <c:y val="0.13226314452628918"/>
-          <c:w val="0.72683857708649424"/>
+          <c:y val="0.13226314452628923"/>
+          <c:w val="0.72683857708649435"/>
           <c:h val="0.84898871512028762"/>
         </c:manualLayout>
       </c:layout>
@@ -13192,12 +15227,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="196907776"/>
-        <c:axId val="196909696"/>
+        <c:axId val="228336384"/>
+        <c:axId val="228338304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="196907776"/>
+        <c:axId val="228336384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="800"/>
@@ -13236,7 +15270,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.52789493116242736"/>
+              <c:x val="0.52789493116242747"/>
               <c:y val="3.2356762640091151E-2"/>
             </c:manualLayout>
           </c:layout>
@@ -13248,12 +15282,12 @@
             <a:prstDash val="sysDot"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="196909696"/>
+        <c:crossAx val="228338304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="196909696"/>
+        <c:axId val="228338304"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="maxMin"/>
@@ -13299,7 +15333,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196907776"/>
+        <c:crossAx val="228336384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13310,10 +15344,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.5260045565128203"/>
+          <c:x val="0.52600455651282041"/>
           <c:y val="0.14313460817397822"/>
           <c:w val="0.17238091647274997"/>
-          <c:h val="0.1666627961827353"/>
+          <c:h val="0.16666279618273533"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -13322,7 +15356,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -13567,6 +15601,134 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.75474</cdr:x>
+      <cdr:y>0.18069</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.95972</cdr:x>
+      <cdr:y>0.32426</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6067425" y="695326"/>
+          <a:ext cx="1647825" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>Planet: primary gas, </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1"/>
+            <a:t>polytropic</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
+            <a:t> index</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1400" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14073,493 +16235,6 @@
 </c:userShapes>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="large"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>Jupiter</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>Saturn</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v>Uranus</v>
-          </cell>
-          <cell r="E9" t="str">
-            <v>Neptune</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>40</v>
-          </cell>
-          <cell r="B10">
-            <v>8.8388347648318447E-2</v>
-          </cell>
-          <cell r="C10">
-            <v>8.8388347648318447E-2</v>
-          </cell>
-          <cell r="D10">
-            <v>6.3188601678507263E-3</v>
-          </cell>
-          <cell r="E10">
-            <v>1.4159299884333204E-2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>50</v>
-          </cell>
-          <cell r="B11">
-            <v>0.19301011109426142</v>
-          </cell>
-          <cell r="C11">
-            <v>0.19301011109426142</v>
-          </cell>
-          <cell r="D11">
-            <v>1.3798243042607381E-2</v>
-          </cell>
-          <cell r="E11">
-            <v>3.0919098686693309E-2</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>60</v>
-          </cell>
-          <cell r="B12">
-            <v>0.36535446722156006</v>
-          </cell>
-          <cell r="C12">
-            <v>0.36535446722156006</v>
-          </cell>
-          <cell r="D12">
-            <v>2.6119096594703239E-2</v>
-          </cell>
-          <cell r="E12">
-            <v>5.8527663465935083E-2</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>70</v>
-          </cell>
-          <cell r="B13">
-            <v>0.6266545330387997</v>
-          </cell>
-          <cell r="C13">
-            <v>0.6266545330387997</v>
-          </cell>
-          <cell r="D13">
-            <v>4.4799370880617438E-2</v>
-          </cell>
-          <cell r="E13">
-            <v>0.10038641623302209</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>80</v>
-          </cell>
-          <cell r="B14">
-            <v>1</v>
-          </cell>
-          <cell r="C14">
-            <v>1</v>
-          </cell>
-          <cell r="D14">
-            <v>7.1489741984909025E-2</v>
-          </cell>
-          <cell r="E14">
-            <v>0.16019419144105451</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>90</v>
-          </cell>
-          <cell r="B15">
-            <v>1.510197783647441</v>
-          </cell>
-          <cell r="C15">
-            <v>1.510197783647441</v>
-          </cell>
-          <cell r="D15">
-            <v>0.10796364989913704</v>
-          </cell>
-          <cell r="E15">
-            <v>0.24192491286747436</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>100</v>
-          </cell>
-          <cell r="B16">
-            <v>2.1836601342771385</v>
-          </cell>
-          <cell r="C16">
-            <v>2.1836601342771385</v>
-          </cell>
-          <cell r="D16">
-            <v>0.15610929958220446</v>
-          </cell>
-          <cell r="E16">
-            <v>0.34980966959259063</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>110</v>
-          </cell>
-          <cell r="B17">
-            <v>3.0483121954711838</v>
-          </cell>
-          <cell r="C17">
-            <v>3.0483121954711838</v>
-          </cell>
-          <cell r="D17">
-            <v>0.21792305234368659</v>
-          </cell>
-          <cell r="E17">
-            <v>0.48832190741341197</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>120</v>
-          </cell>
-          <cell r="B18">
-            <v>4.1335139409466128</v>
-          </cell>
-          <cell r="C18">
-            <v>4.1335139409466128</v>
-          </cell>
-          <cell r="D18">
-            <v>0.295503845129298</v>
-          </cell>
-          <cell r="E18">
-            <v>0.66216492358026935</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>130</v>
-          </cell>
-          <cell r="B19">
-            <v>5.4699931012516352</v>
-          </cell>
-          <cell r="C19">
-            <v>5.4699931012516352</v>
-          </cell>
-          <cell r="D19">
-            <v>0.3910483954677117</v>
-          </cell>
-          <cell r="E19">
-            <v>0.87626112204315176</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>140</v>
-          </cell>
-          <cell r="B20">
-            <v>7.0897867163683941</v>
-          </cell>
-          <cell r="C20">
-            <v>7.0897867163683941</v>
-          </cell>
-          <cell r="D20">
-            <v>0.50684702308121199</v>
-          </cell>
-          <cell r="E20">
-            <v>1.1357426505181638</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>150</v>
-          </cell>
-          <cell r="B21">
-            <v>9.0261896073239019</v>
-          </cell>
-          <cell r="C21">
-            <v>9.0261896073239019</v>
-          </cell>
-          <cell r="D21">
-            <v>0.64527996613445326</v>
-          </cell>
-          <cell r="E21">
-            <v>1.4459431459389025</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>160</v>
-          </cell>
-          <cell r="B22">
-            <v>11.313708498984759</v>
-          </cell>
-          <cell r="C22">
-            <v>11.313708498984759</v>
-          </cell>
-          <cell r="D22">
-            <v>0.80881410148489297</v>
-          </cell>
-          <cell r="E22">
-            <v>1.8123903851946499</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>170</v>
-          </cell>
-          <cell r="B23">
-            <v>13.988020829772934</v>
-          </cell>
-          <cell r="C23">
-            <v>13.988020829772934</v>
-          </cell>
-          <cell r="D23">
-            <v>1</v>
-          </cell>
-          <cell r="E23">
-            <v>2.2407996866861035</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>180</v>
-          </cell>
-          <cell r="B24">
-            <v>17.085937499999996</v>
-          </cell>
-          <cell r="C24">
-            <v>17.085937499999996</v>
-          </cell>
-          <cell r="D24">
-            <v>1.2214692634452817</v>
-          </cell>
-          <cell r="E24">
-            <v>2.7370679428248916</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>190</v>
-          </cell>
-          <cell r="B25">
-            <v>20.645368967951278</v>
-          </cell>
-          <cell r="C25">
-            <v>20.645368967951278</v>
-          </cell>
-          <cell r="D25">
-            <v>1.4759321007020845</v>
-          </cell>
-          <cell r="E25">
-            <v>3.3072681888231932</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>200</v>
-          </cell>
-          <cell r="B26">
-            <v>24.705294220065468</v>
-          </cell>
-          <cell r="C26">
-            <v>24.705294220065468</v>
-          </cell>
-          <cell r="D26">
-            <v>1.7661751094537448</v>
-          </cell>
-          <cell r="E26">
-            <v>3.957644631896744</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>210</v>
-          </cell>
-          <cell r="B27">
-            <v>29.305732230446868</v>
-          </cell>
-          <cell r="C27">
-            <v>29.305732230446868</v>
-          </cell>
-          <cell r="D27">
-            <v>2.0950592358334803</v>
-          </cell>
-          <cell r="E27">
-            <v>4.694608079244488</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>220</v>
-          </cell>
-          <cell r="B28">
-            <v>34.487715593461225</v>
-          </cell>
-          <cell r="C28">
-            <v>34.487715593461225</v>
-          </cell>
-          <cell r="D28">
-            <v>2.4655178894254677</v>
-          </cell>
-          <cell r="E28">
-            <v>5.5247317141435683</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>230</v>
-          </cell>
-          <cell r="B29">
-            <v>40.293266066740784</v>
-          </cell>
-          <cell r="C29">
-            <v>40.293266066740784</v>
-          </cell>
-          <cell r="D29">
-            <v>2.8805551948405905</v>
-          </cell>
-          <cell r="E29">
-            <v>6.4547471780808205</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>240</v>
-          </cell>
-          <cell r="B30">
-            <v>46.765371804359695</v>
-          </cell>
-          <cell r="C30">
-            <v>46.765371804359695</v>
-          </cell>
-          <cell r="D30">
-            <v>3.3432443641220146</v>
-          </cell>
-          <cell r="E30">
-            <v>7.4915409236396888</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>250</v>
-          </cell>
-          <cell r="B31">
-            <v>53.947966093944359</v>
-          </cell>
-          <cell r="C31">
-            <v>53.947966093944359</v>
-          </cell>
-          <cell r="D31">
-            <v>3.856726176666704</v>
-          </cell>
-          <cell r="E31">
-            <v>8.6421508083088394</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>260</v>
-          </cell>
-          <cell r="B32">
-            <v>61.885907439018659</v>
-          </cell>
-          <cell r="C32">
-            <v>61.885907439018659</v>
-          </cell>
-          <cell r="D32">
-            <v>4.4242075553174036</v>
-          </cell>
-          <cell r="E32">
-            <v>9.9137629037895287</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>270</v>
-          </cell>
-          <cell r="B33">
-            <v>70.624960850392526</v>
-          </cell>
-          <cell r="C33">
-            <v>70.624960850392526</v>
-          </cell>
-          <cell r="D33">
-            <v>5.0489602288888626</v>
-          </cell>
-          <cell r="E33">
-            <v>11.313708498984759</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>280</v>
-          </cell>
-          <cell r="B34">
-            <v>80.21178022896639</v>
-          </cell>
-          <cell r="C34">
-            <v>80.21178022896639</v>
-          </cell>
-          <cell r="D34">
-            <v>5.734319472719033</v>
-          </cell>
-          <cell r="E34">
-            <v>12.849461277826824</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>290</v>
-          </cell>
-          <cell r="B35">
-            <v>90.693891737751414</v>
-          </cell>
-          <cell r="C35">
-            <v>90.693891737751414</v>
-          </cell>
-          <cell r="D35">
-            <v>6.4836829199391186</v>
-          </cell>
-          <cell r="E35">
-            <v>14.528634655571624</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>300</v>
-          </cell>
-          <cell r="B36">
-            <v>102.11967807382838</v>
-          </cell>
-          <cell r="C36">
-            <v>102.11967807382838</v>
-          </cell>
-          <cell r="D36">
-            <v>7.3005094370799632</v>
-          </cell>
-          <cell r="E36">
-            <v>16.358979259257723</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -19631,6 +21306,3090 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I109"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="13">
+        <v>10</v>
+      </c>
+      <c r="B1" s="13">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13">
+        <v>1</v>
+      </c>
+      <c r="E1" s="13">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3">
+        <v>1</v>
+      </c>
+      <c r="H1" s="3">
+        <v>1</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13">
+        <v>77</v>
+      </c>
+      <c r="C2" s="13">
+        <v>77</v>
+      </c>
+      <c r="D2" s="13">
+        <v>166</v>
+      </c>
+      <c r="E2" s="13">
+        <v>126</v>
+      </c>
+      <c r="F2" s="3">
+        <v>600</v>
+      </c>
+      <c r="G2" s="3">
+        <v>300</v>
+      </c>
+      <c r="H2" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="3">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5.25</v>
+      </c>
+      <c r="H3" s="3">
+        <v>5.25</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="I4" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="13">
+        <v>40</v>
+      </c>
+      <c r="B10" s="13">
+        <f>+B$1*($A10/B$2)^$B$3</f>
+        <v>0.10103978921570313</v>
+      </c>
+      <c r="C10" s="13">
+        <f t="shared" ref="C10:E10" si="0">+C$1*($A10/C$2)^$B$3</f>
+        <v>0.10103978921570313</v>
+      </c>
+      <c r="D10" s="13">
+        <f t="shared" si="0"/>
+        <v>6.8680217447939975E-3</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="0"/>
+        <v>1.802656843934175E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <f>+F$1*($A10/F$2)^$F$3</f>
+        <v>8.779149519890261E-8</v>
+      </c>
+      <c r="G10" s="3">
+        <f>+G$1*($A10/G$2)^$G$3</f>
+        <v>2.5464102114348409E-5</v>
+      </c>
+      <c r="H10" s="3">
+        <f>+H$1*($A10/H$2)^$G$3</f>
+        <v>1.6917604906072563E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="13">
+        <f>+$A10+$A$1</f>
+        <v>50</v>
+      </c>
+      <c r="B11" s="13">
+        <f t="shared" ref="B11:E36" si="1">+B$1*($A11/B$2)^$B$3</f>
+        <v>0.22063655968609616</v>
+      </c>
+      <c r="C11" s="13">
+        <f t="shared" si="1"/>
+        <v>0.22063655968609616</v>
+      </c>
+      <c r="D11" s="13">
+        <f t="shared" si="1"/>
+        <v>1.4997425285455184E-2</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" si="1"/>
+        <v>3.9363898858809046E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" ref="F11:F36" si="2">+F$1*($A11/F$2)^$F$3</f>
+        <v>3.3489797668038406E-7</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" ref="G11:H36" si="3">+G$1*($A11/G$2)^$G$3</f>
+        <v>8.2168609085168847E-5</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="3"/>
+        <v>5.4590421368170855E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="13">
+        <f t="shared" ref="A12:A75" si="4">+$A11+$A$1</f>
+        <v>60</v>
+      </c>
+      <c r="B12" s="13">
+        <f t="shared" si="1"/>
+        <v>0.41764937731341639</v>
+      </c>
+      <c r="C12" s="13">
+        <f t="shared" si="1"/>
+        <v>0.41764937731341639</v>
+      </c>
+      <c r="D12" s="13">
+        <f t="shared" si="1"/>
+        <v>2.838906362883048E-2</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" si="1"/>
+        <v>7.4513071951447379E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000006E-6</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="3"/>
+        <v>2.1399689759245532E-4</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="3"/>
+        <v>0.14217328175708452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="B13" s="13">
+        <f t="shared" si="1"/>
+        <v>0.71635055540615489</v>
+      </c>
+      <c r="C13" s="13">
+        <f t="shared" si="1"/>
+        <v>0.71635055540615489</v>
+      </c>
+      <c r="D13" s="13">
+        <f t="shared" si="1"/>
+        <v>4.8692809333969814E-2</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" si="1"/>
+        <v>0.12780452546295096</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5216263717421133E-6</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="3"/>
+        <v>4.807044281703614E-4</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="3"/>
+        <v>0.31936596687629981</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="13">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="B14" s="13">
+        <f t="shared" si="1"/>
+        <v>1.1431347219853294</v>
+      </c>
+      <c r="C14" s="13">
+        <f t="shared" si="1"/>
+        <v>1.1431347219853294</v>
+      </c>
+      <c r="D14" s="13">
+        <f t="shared" si="1"/>
+        <v>7.7702795985288023E-2</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" si="1"/>
+        <v>0.20394734055971125</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="2"/>
+        <v>5.618655692729767E-6</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="3"/>
+        <v>9.690269251692459E-4</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="3"/>
+        <v>0.64379315593940567</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="13">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="B15" s="13">
+        <f t="shared" si="1"/>
+        <v>1.7263595235526783</v>
+      </c>
+      <c r="C15" s="13">
+        <f t="shared" si="1"/>
+        <v>1.7263595235526783</v>
+      </c>
+      <c r="D15" s="13">
+        <f t="shared" si="1"/>
+        <v>0.11734659028019127</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" si="1"/>
+        <v>0.30800082169406584</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1390624999999999E-5</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="3"/>
+        <v>1.7984012149162524E-3</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="3"/>
+        <v>1.1948051841737835</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="13">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="B16" s="13">
+        <f t="shared" si="1"/>
+        <v>2.4962177205073446</v>
+      </c>
+      <c r="C16" s="13">
+        <f t="shared" si="1"/>
+        <v>2.4962177205073446</v>
+      </c>
+      <c r="D16" s="13">
+        <f t="shared" si="1"/>
+        <v>0.16967649791494324</v>
+      </c>
+      <c r="E16" s="13">
+        <f t="shared" si="1"/>
+        <v>0.44535167707208428</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="2"/>
+        <v>2.143347050754458E-5</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="3"/>
+        <v>3.1268958257267181E-3</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="3"/>
+        <v>2.0774181600648114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="13">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="B17" s="13">
+        <f t="shared" si="1"/>
+        <v>3.4846315140944419</v>
+      </c>
+      <c r="C17" s="13">
+        <f t="shared" si="1"/>
+        <v>3.4846315140944419</v>
+      </c>
+      <c r="D17" s="13">
+        <f t="shared" si="1"/>
+        <v>0.2368623806241629</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" si="1"/>
+        <v>0.62169516546208281</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="2"/>
+        <v>3.7970700445816167E-5</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="3"/>
+        <v>5.1573310507209954E-3</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="3"/>
+        <v>3.4263799561483359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="13">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="B18" s="13">
+        <f t="shared" si="1"/>
+        <v>4.7251633097064918</v>
+      </c>
+      <c r="C18" s="13">
+        <f t="shared" si="1"/>
+        <v>4.7251633097064918</v>
+      </c>
+      <c r="D18" s="13">
+        <f t="shared" si="1"/>
+        <v>0.32118559045571865</v>
+      </c>
+      <c r="E18" s="13">
+        <f t="shared" si="1"/>
+        <v>0.84301917542255311</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="2"/>
+        <v>6.4000000000000038E-5</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="3"/>
+        <v>8.1435722625746026E-3</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="3"/>
+        <v>5.4103513033219661</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="13">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="B19" s="13">
+        <f t="shared" si="1"/>
+        <v>6.2529390430609579</v>
+      </c>
+      <c r="C19" s="13">
+        <f t="shared" si="1"/>
+        <v>6.2529390430609579</v>
+      </c>
+      <c r="D19" s="13">
+        <f t="shared" si="1"/>
+        <v>0.42503375798748871</v>
+      </c>
+      <c r="E19" s="13">
+        <f t="shared" si="1"/>
+        <v>1.1155905458802389</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0345526834705078E-4</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="3"/>
+        <v>1.239698319058288E-2</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="3"/>
+        <v>8.2361931594410223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="13">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="B20" s="13">
+        <f t="shared" si="1"/>
+        <v>8.1045813669510665</v>
+      </c>
+      <c r="C20" s="13">
+        <f t="shared" si="1"/>
+        <v>8.1045813669510665</v>
+      </c>
+      <c r="D20" s="13">
+        <f t="shared" si="1"/>
+        <v>0.55089625080117866</v>
+      </c>
+      <c r="E20" s="13">
+        <f t="shared" si="1"/>
+        <v>1.4459431459389025</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6138408779149525E-4</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="3"/>
+        <v>1.8293028038192247E-2</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="3"/>
+        <v>12.15335296316861</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="13">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="B21" s="13">
+        <f t="shared" si="1"/>
+        <v>10.318150747355084</v>
+      </c>
+      <c r="C21" s="13">
+        <f t="shared" si="1"/>
+        <v>10.318150747355084</v>
+      </c>
+      <c r="D21" s="13">
+        <f t="shared" si="1"/>
+        <v>0.70136016958241654</v>
+      </c>
+      <c r="E21" s="13">
+        <f t="shared" si="1"/>
+        <v>1.840867365801415</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="2"/>
+        <v>2.44140625E-4</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="3"/>
+        <v>2.6278012976678578E-2</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="3"/>
+        <v>17.458343485262589</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="13">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+      <c r="B22" s="13">
+        <f t="shared" si="1"/>
+        <v>12.933093019610002</v>
+      </c>
+      <c r="C22" s="13">
+        <f t="shared" si="1"/>
+        <v>12.933093019610002</v>
+      </c>
+      <c r="D22" s="13">
+        <f t="shared" si="1"/>
+        <v>0.87910678333363224</v>
+      </c>
+      <c r="E22" s="13">
+        <f t="shared" si="1"/>
+        <v>2.3074007602357445</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="2"/>
+        <v>3.5959396433470509E-4</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="3"/>
+        <v>3.6875958849295253E-2</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="3"/>
+        <v>24.499308852262331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="13">
+        <f t="shared" si="4"/>
+        <v>170</v>
+      </c>
+      <c r="B23" s="13">
+        <f t="shared" si="1"/>
+        <v>15.990192302367483</v>
+      </c>
+      <c r="C23" s="13">
+        <f t="shared" si="1"/>
+        <v>15.990192302367483</v>
+      </c>
+      <c r="D23" s="13">
+        <f t="shared" si="1"/>
+        <v>1.0869083287738057</v>
+      </c>
+      <c r="E23" s="13">
+        <f t="shared" si="1"/>
+        <v>2.8528196479260357</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="2"/>
+        <v>5.1735187328532208E-4</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="3"/>
+        <v>5.0695597958473892E-2</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="3"/>
+        <v>33.680673007327286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="13">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="B24" s="13">
+        <f t="shared" si="1"/>
+        <v>19.531528413921222</v>
+      </c>
+      <c r="C24" s="13">
+        <f t="shared" si="1"/>
+        <v>19.531528413921222</v>
+      </c>
+      <c r="D24" s="13">
+        <f t="shared" si="1"/>
+        <v>1.3276251157798822</v>
+      </c>
+      <c r="E24" s="13">
+        <f t="shared" si="1"/>
+        <v>3.4846315140944419</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="2"/>
+        <v>7.2899999999999994E-4</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="3"/>
+        <v>6.843748865305424E-2</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="3"/>
+        <v>45.467866433971196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="13">
+        <f t="shared" si="4"/>
+        <v>190</v>
+      </c>
+      <c r="B25" s="13">
+        <f t="shared" si="1"/>
+        <v>23.600438115463543</v>
+      </c>
+      <c r="C25" s="13">
+        <f t="shared" si="1"/>
+        <v>23.600438115463543</v>
+      </c>
+      <c r="D25" s="13">
+        <f t="shared" si="1"/>
+        <v>1.6042028929577146</v>
+      </c>
+      <c r="E25" s="13">
+        <f t="shared" si="1"/>
+        <v>4.2105680958876537</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0083565029149518E-3</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="3"/>
+        <v>9.0901242129371257E-2</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="3"/>
+        <v>60.392127431401228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="13">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="B26" s="13">
+        <f t="shared" si="1"/>
+        <v>28.241479639820309</v>
+      </c>
+      <c r="C26" s="13">
+        <f t="shared" si="1"/>
+        <v>28.241479639820309</v>
+      </c>
+      <c r="D26" s="13">
+        <f t="shared" si="1"/>
+        <v>1.9196704365382631</v>
+      </c>
+      <c r="E26" s="13">
+        <f t="shared" si="1"/>
+        <v>5.0385790539275561</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="2"/>
+        <v>1.3717421124828531E-3</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="3"/>
+        <v>0.11899285644244864</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="3"/>
+        <v>79.055374617117934</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="13">
+        <f t="shared" si="4"/>
+        <v>210</v>
+      </c>
+      <c r="B27" s="13">
+        <f t="shared" si="1"/>
+        <v>33.500400065828394</v>
+      </c>
+      <c r="C27" s="13">
+        <f t="shared" si="1"/>
+        <v>33.500400065828394</v>
+      </c>
+      <c r="D27" s="13">
+        <f t="shared" si="1"/>
+        <v>2.2771373327018933</v>
+      </c>
+      <c r="E27" s="13">
+        <f t="shared" si="1"/>
+        <v>5.9768261515546568</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="2"/>
+        <v>1.8382656249999992E-3</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="3"/>
+        <v>0.15373215321576661</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="3"/>
+        <v>102.1351476594448</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="13">
+        <f t="shared" si="4"/>
+        <v>220</v>
+      </c>
+      <c r="B28" s="13">
+        <f t="shared" si="1"/>
+        <v>39.424105176840413</v>
+      </c>
+      <c r="C28" s="13">
+        <f t="shared" si="1"/>
+        <v>39.424105176840413</v>
+      </c>
+      <c r="D28" s="13">
+        <f t="shared" si="1"/>
+        <v>2.6797919287573553</v>
+      </c>
+      <c r="E28" s="13">
+        <f t="shared" si="1"/>
+        <v>7.0336778772661033</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4301248285322347E-3</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="3"/>
+        <v>0.19626031295813953</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="3"/>
+        <v>130.38961352173806</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="13">
+        <f t="shared" si="4"/>
+        <v>230</v>
+      </c>
+      <c r="B29" s="13">
+        <f t="shared" si="1"/>
+        <v>46.060631503084643</v>
+      </c>
+      <c r="C29" s="13">
+        <f t="shared" si="1"/>
+        <v>46.060631503084643</v>
+      </c>
+      <c r="D29" s="13">
+        <f t="shared" si="1"/>
+        <v>3.1308994327648887</v>
+      </c>
+      <c r="E29" s="13">
+        <f t="shared" si="1"/>
+        <v>8.2177044567766409</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="2"/>
+        <v>3.1729228609396446E-3</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="3"/>
+        <v>0.24784750525787705</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="3"/>
+        <v>164.66263574029023</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="13">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+      <c r="B30" s="13">
+        <f t="shared" si="1"/>
+        <v>53.459120296117291</v>
+      </c>
+      <c r="C30" s="13">
+        <f t="shared" si="1"/>
+        <v>53.459120296117291</v>
+      </c>
+      <c r="D30" s="13">
+        <f t="shared" si="1"/>
+        <v>3.6338001444903023</v>
+      </c>
+      <c r="E30" s="13">
+        <f t="shared" si="1"/>
+        <v>9.5376732097852628</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="2"/>
+        <v>4.0960000000000024E-3</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="3"/>
+        <v>0.30990061043816075</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="3"/>
+        <v>205.88890446639147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="13">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="B31" s="13">
+        <f t="shared" si="1"/>
+        <v>61.6697932224751</v>
+      </c>
+      <c r="C31" s="13">
+        <f t="shared" si="1"/>
+        <v>61.6697932224751</v>
+      </c>
+      <c r="D31" s="13">
+        <f t="shared" si="1"/>
+        <v>4.1919078032189958</v>
+      </c>
+      <c r="E31" s="13">
+        <f t="shared" si="1"/>
+        <v>11.002544213465427</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="2"/>
+        <v>5.2327808856310037E-3</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="3"/>
+        <v>0.38397102953171897</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="3"/>
+        <v>255.0991251851475</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="13">
+        <f t="shared" si="4"/>
+        <v>260</v>
+      </c>
+      <c r="B32" s="13">
+        <f t="shared" si="1"/>
+        <v>70.743929595112405</v>
+      </c>
+      <c r="C32" s="13">
+        <f t="shared" si="1"/>
+        <v>70.743929595112405</v>
+      </c>
+      <c r="D32" s="13">
+        <f t="shared" si="1"/>
+        <v>4.808708040098483</v>
+      </c>
+      <c r="E32" s="13">
+        <f t="shared" si="1"/>
+        <v>12.621466240312309</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="2"/>
+        <v>6.6211371742112496E-3</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="3"/>
+        <v>0.47176257967392959</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="3"/>
+        <v>313.42526418380811</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="13">
+        <f t="shared" si="4"/>
+        <v>270</v>
+      </c>
+      <c r="B33" s="13">
+        <f t="shared" si="1"/>
+        <v>80.733844986938223</v>
+      </c>
+      <c r="C33" s="13">
+        <f t="shared" si="1"/>
+        <v>80.733844986938223</v>
+      </c>
+      <c r="D33" s="13">
+        <f t="shared" si="1"/>
+        <v>5.4877569244270052</v>
+      </c>
+      <c r="E33" s="13">
+        <f t="shared" si="1"/>
+        <v>14.403772942571276</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="2"/>
+        <v>8.3037656250000026E-3</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="3"/>
+        <v>0.57513947222667361</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="3"/>
+        <v>382.10584898398406</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="13">
+        <f t="shared" si="4"/>
+        <v>280</v>
+      </c>
+      <c r="B34" s="13">
+        <f t="shared" si="1"/>
+        <v>91.692871091987882</v>
+      </c>
+      <c r="C34" s="13">
+        <f t="shared" si="1"/>
+        <v>91.692871091987882</v>
+      </c>
+      <c r="D34" s="13">
+        <f t="shared" si="1"/>
+        <v>6.232679594748137</v>
+      </c>
+      <c r="E34" s="13">
+        <f t="shared" si="1"/>
+        <v>16.358979259257723</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0328581618655696E-2</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="3"/>
+        <v>0.69613437113479992</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" si="3"/>
+        <v>462.49132207806468</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="13">
+        <f t="shared" si="4"/>
+        <v>290</v>
+      </c>
+      <c r="B35" s="13">
+        <f t="shared" si="1"/>
+        <v>103.67533671740209</v>
+      </c>
+      <c r="C35" s="13">
+        <f t="shared" si="1"/>
+        <v>103.67533671740209</v>
+      </c>
+      <c r="D35" s="13">
+        <f t="shared" si="1"/>
+        <v>7.0471689668102977</v>
+      </c>
+      <c r="E35" s="13">
+        <f t="shared" si="1"/>
+        <v>18.496778024924765</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2749128107853221E-2</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="3"/>
+        <v>0.83695652918639418</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="3"/>
+        <v>556.04944642264809</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="13">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="B36" s="13">
+        <f t="shared" si="1"/>
+        <v>116.73654980415721</v>
+      </c>
+      <c r="C36" s="13">
+        <f t="shared" si="1"/>
+        <v>116.73654980415721</v>
+      </c>
+      <c r="D36" s="13">
+        <f t="shared" si="1"/>
+        <v>7.934984511453977</v>
+      </c>
+      <c r="E36" s="13">
+        <f t="shared" si="1"/>
+        <v>20.827036761971158</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" si="3"/>
+        <v>664.37076124274188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="13">
+        <f t="shared" si="4"/>
+        <v>310</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="13">
+        <f t="shared" si="4"/>
+        <v>320</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="13">
+        <f t="shared" si="4"/>
+        <v>330</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="13">
+        <f t="shared" si="4"/>
+        <v>340</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="13">
+        <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="13">
+        <f t="shared" si="4"/>
+        <v>360</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="13">
+        <f t="shared" si="4"/>
+        <v>370</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="13">
+        <f t="shared" si="4"/>
+        <v>380</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="13">
+        <f t="shared" si="4"/>
+        <v>390</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="13">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="13">
+        <f t="shared" si="4"/>
+        <v>410</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="13">
+        <f t="shared" si="4"/>
+        <v>420</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="13">
+        <f t="shared" si="4"/>
+        <v>430</v>
+      </c>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="13">
+        <f t="shared" si="4"/>
+        <v>440</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="13">
+        <f t="shared" si="4"/>
+        <v>450</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="13">
+        <f t="shared" si="4"/>
+        <v>460</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="13">
+        <f t="shared" si="4"/>
+        <v>470</v>
+      </c>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="13">
+        <f t="shared" si="4"/>
+        <v>480</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="13">
+        <f t="shared" si="4"/>
+        <v>490</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="13">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="13">
+        <f t="shared" si="4"/>
+        <v>510</v>
+      </c>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="13">
+        <f t="shared" si="4"/>
+        <v>520</v>
+      </c>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="13">
+        <f t="shared" si="4"/>
+        <v>530</v>
+      </c>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="13">
+        <f t="shared" si="4"/>
+        <v>540</v>
+      </c>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="13">
+        <f t="shared" si="4"/>
+        <v>550</v>
+      </c>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="13">
+        <f t="shared" si="4"/>
+        <v>560</v>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="13">
+        <f t="shared" si="4"/>
+        <v>570</v>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="13">
+        <f t="shared" si="4"/>
+        <v>580</v>
+      </c>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="13">
+        <f t="shared" si="4"/>
+        <v>590</v>
+      </c>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="13">
+        <f t="shared" si="4"/>
+        <v>600</v>
+      </c>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="13">
+        <f t="shared" si="4"/>
+        <v>610</v>
+      </c>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="13">
+        <f t="shared" si="4"/>
+        <v>620</v>
+      </c>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="13">
+        <f t="shared" si="4"/>
+        <v>630</v>
+      </c>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="13">
+        <f t="shared" si="4"/>
+        <v>640</v>
+      </c>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="13">
+        <f t="shared" si="4"/>
+        <v>650</v>
+      </c>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="13">
+        <f t="shared" si="4"/>
+        <v>660</v>
+      </c>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="13">
+        <f t="shared" si="4"/>
+        <v>670</v>
+      </c>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="13">
+        <f t="shared" si="4"/>
+        <v>680</v>
+      </c>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="13">
+        <f t="shared" si="4"/>
+        <v>690</v>
+      </c>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="13">
+        <f t="shared" ref="A76:A109" si="5">+$A75+$A$1</f>
+        <v>700</v>
+      </c>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="13">
+        <f t="shared" si="5"/>
+        <v>710</v>
+      </c>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="13">
+        <f t="shared" si="5"/>
+        <v>720</v>
+      </c>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="13">
+        <f t="shared" si="5"/>
+        <v>730</v>
+      </c>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="13">
+        <f t="shared" si="5"/>
+        <v>740</v>
+      </c>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="13">
+        <f t="shared" si="5"/>
+        <v>750</v>
+      </c>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="13">
+        <f t="shared" si="5"/>
+        <v>760</v>
+      </c>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="13">
+        <f t="shared" si="5"/>
+        <v>770</v>
+      </c>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="13">
+        <f t="shared" si="5"/>
+        <v>780</v>
+      </c>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="13">
+        <f t="shared" si="5"/>
+        <v>790</v>
+      </c>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="13">
+        <f t="shared" si="5"/>
+        <v>800</v>
+      </c>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="13">
+        <f t="shared" si="5"/>
+        <v>810</v>
+      </c>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="13">
+        <f t="shared" si="5"/>
+        <v>820</v>
+      </c>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="13">
+        <f t="shared" si="5"/>
+        <v>830</v>
+      </c>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="13">
+        <f t="shared" si="5"/>
+        <v>840</v>
+      </c>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="13">
+        <f t="shared" si="5"/>
+        <v>850</v>
+      </c>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="13">
+        <f t="shared" si="5"/>
+        <v>860</v>
+      </c>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="13">
+        <f t="shared" si="5"/>
+        <v>870</v>
+      </c>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="13">
+        <f t="shared" si="5"/>
+        <v>880</v>
+      </c>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="13">
+        <f t="shared" si="5"/>
+        <v>890</v>
+      </c>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="13">
+        <f t="shared" si="5"/>
+        <v>900</v>
+      </c>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="13">
+        <f t="shared" si="5"/>
+        <v>910</v>
+      </c>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="13">
+        <f t="shared" si="5"/>
+        <v>920</v>
+      </c>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="13">
+        <f t="shared" si="5"/>
+        <v>930</v>
+      </c>
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="13">
+        <f t="shared" si="5"/>
+        <v>940</v>
+      </c>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="13">
+        <f t="shared" si="5"/>
+        <v>950</v>
+      </c>
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="13">
+        <f t="shared" si="5"/>
+        <v>960</v>
+      </c>
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="13">
+        <f t="shared" si="5"/>
+        <v>970</v>
+      </c>
+      <c r="B103" s="13"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="13">
+        <f t="shared" si="5"/>
+        <v>980</v>
+      </c>
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="13">
+        <f t="shared" si="5"/>
+        <v>990</v>
+      </c>
+      <c r="B105" s="13"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="13">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="13">
+        <f t="shared" si="5"/>
+        <v>1010</v>
+      </c>
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="13">
+        <f t="shared" si="5"/>
+        <v>1020</v>
+      </c>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="13">
+        <f t="shared" si="5"/>
+        <v>1030</v>
+      </c>
+      <c r="B109" s="13"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="13">
+        <v>10</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="3">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="3">
+        <v>863</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="I4" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="13">
+        <v>40</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="3">
+        <f>+F$1*($A10/F$2)^$F$3</f>
+        <v>1.3508790319049714E-6</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="13">
+        <f>+$A10+$A$1</f>
+        <v>50</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="3">
+        <f t="shared" ref="F11:F36" si="0">+F$1*($A11/F$2)^$F$3</f>
+        <v>3.6059567870363927E-6</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="13">
+        <f t="shared" ref="A12:A75" si="1">+$A11+$A$1</f>
+        <v>60</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="3">
+        <f t="shared" si="0"/>
+        <v>8.0429987376713599E-6</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5848343474543598E-5</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="13">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="3">
+        <f t="shared" si="0"/>
+        <v>2.8519929105533431E-5</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="13">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="3">
+        <f t="shared" si="0"/>
+        <v>4.7887210598686667E-5</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="13">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>7.6129416102395692E-5</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="13">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1579246879181435E-4</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="13">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6980480737110028E-4</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="13">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="3">
+        <f t="shared" si="0"/>
+        <v>2.41492278428799E-4</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="13">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="3">
+        <f t="shared" si="0"/>
+        <v>3.3459223339689961E-4</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="13">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="3">
+        <f t="shared" si="0"/>
+        <v>4.5326693445509053E-4</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="13">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="3">
+        <f t="shared" si="0"/>
+        <v>6.0211635311093533E-4</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="13">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="3">
+        <f t="shared" si="0"/>
+        <v>7.8619042982693227E-4</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="13">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0110008513570339E-3</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="13">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="3">
+        <f t="shared" si="0"/>
+        <v>1.282532393355993E-3</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="13">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6072538686341203E-3</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="13">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="3">
+        <f t="shared" si="0"/>
+        <v>1.9921287156637289E-3</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="13">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="3">
+        <f t="shared" si="0"/>
+        <v>2.4446252572595589E-3</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="13">
+        <f t="shared" si="1"/>
+        <v>230</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="3">
+        <f t="shared" si="0"/>
+        <v>2.9727266555067394E-3</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="13">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="3">
+        <f t="shared" si="0"/>
+        <v>3.584940585814953E-3</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="13">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="3">
+        <f t="shared" si="0"/>
+        <v>4.2903086503006775E-3</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="13">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="3">
+        <f t="shared" si="0"/>
+        <v>5.0984155484379325E-3</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="13">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="3">
+        <f t="shared" si="0"/>
+        <v>6.0193980209926915E-3</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="13">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="3">
+        <f t="shared" si="0"/>
+        <v>7.0639535816060832E-3</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="13">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="3">
+        <f t="shared" si="0"/>
+        <v>8.2433490489675926E-3</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="13">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="3">
+        <f t="shared" si="0"/>
+        <v>9.5694288912843463E-3</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="13">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="13">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="13">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="13">
+        <f t="shared" si="1"/>
+        <v>340</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="13">
+        <f t="shared" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="13">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="13">
+        <f t="shared" si="1"/>
+        <v>370</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="13">
+        <f t="shared" si="1"/>
+        <v>380</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="13">
+        <f t="shared" si="1"/>
+        <v>390</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="13">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="13">
+        <f t="shared" si="1"/>
+        <v>410</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="13">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="13">
+        <f t="shared" si="1"/>
+        <v>430</v>
+      </c>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="13">
+        <f t="shared" si="1"/>
+        <v>440</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="13">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="13">
+        <f t="shared" si="1"/>
+        <v>460</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="13">
+        <f t="shared" si="1"/>
+        <v>470</v>
+      </c>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="13">
+        <f t="shared" si="1"/>
+        <v>480</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="13">
+        <f t="shared" si="1"/>
+        <v>490</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="13">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="13">
+        <f t="shared" si="1"/>
+        <v>510</v>
+      </c>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="13">
+        <f t="shared" si="1"/>
+        <v>520</v>
+      </c>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="13">
+        <f t="shared" si="1"/>
+        <v>530</v>
+      </c>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="13">
+        <f t="shared" si="1"/>
+        <v>540</v>
+      </c>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="13">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="13">
+        <f t="shared" si="1"/>
+        <v>560</v>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="13">
+        <f t="shared" si="1"/>
+        <v>570</v>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="13">
+        <f t="shared" si="1"/>
+        <v>580</v>
+      </c>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="13">
+        <f t="shared" si="1"/>
+        <v>590</v>
+      </c>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="13">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="13">
+        <f t="shared" si="1"/>
+        <v>610</v>
+      </c>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="13">
+        <f t="shared" si="1"/>
+        <v>620</v>
+      </c>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="13">
+        <f t="shared" si="1"/>
+        <v>630</v>
+      </c>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="13">
+        <f t="shared" si="1"/>
+        <v>640</v>
+      </c>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="13">
+        <f t="shared" si="1"/>
+        <v>650</v>
+      </c>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="13">
+        <f t="shared" si="1"/>
+        <v>660</v>
+      </c>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="13">
+        <f t="shared" si="1"/>
+        <v>670</v>
+      </c>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="13">
+        <f t="shared" si="1"/>
+        <v>680</v>
+      </c>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="13">
+        <f t="shared" si="1"/>
+        <v>690</v>
+      </c>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="13">
+        <f t="shared" ref="A76:A109" si="2">+$A75+$A$1</f>
+        <v>700</v>
+      </c>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="13">
+        <f t="shared" si="2"/>
+        <v>710</v>
+      </c>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="13">
+        <f t="shared" si="2"/>
+        <v>720</v>
+      </c>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="13">
+        <f t="shared" si="2"/>
+        <v>730</v>
+      </c>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="13">
+        <f t="shared" si="2"/>
+        <v>740</v>
+      </c>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="13">
+        <f t="shared" si="2"/>
+        <v>750</v>
+      </c>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="13">
+        <f t="shared" si="2"/>
+        <v>760</v>
+      </c>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="13">
+        <f t="shared" si="2"/>
+        <v>770</v>
+      </c>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="13">
+        <f t="shared" si="2"/>
+        <v>780</v>
+      </c>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="13">
+        <f t="shared" si="2"/>
+        <v>790</v>
+      </c>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="13">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="13">
+        <f t="shared" si="2"/>
+        <v>810</v>
+      </c>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="13">
+        <f t="shared" si="2"/>
+        <v>820</v>
+      </c>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="13">
+        <f t="shared" si="2"/>
+        <v>830</v>
+      </c>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="13">
+        <f t="shared" si="2"/>
+        <v>840</v>
+      </c>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="13">
+        <f t="shared" si="2"/>
+        <v>850</v>
+      </c>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="13">
+        <f t="shared" si="2"/>
+        <v>860</v>
+      </c>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="13">
+        <f t="shared" si="2"/>
+        <v>870</v>
+      </c>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="13">
+        <f t="shared" si="2"/>
+        <v>880</v>
+      </c>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="13">
+        <f t="shared" si="2"/>
+        <v>890</v>
+      </c>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="13">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="13">
+        <f t="shared" si="2"/>
+        <v>910</v>
+      </c>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="13">
+        <f t="shared" si="2"/>
+        <v>920</v>
+      </c>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="13">
+        <f t="shared" si="2"/>
+        <v>930</v>
+      </c>
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="13">
+        <f t="shared" si="2"/>
+        <v>940</v>
+      </c>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="13">
+        <f t="shared" si="2"/>
+        <v>950</v>
+      </c>
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="13">
+        <f t="shared" si="2"/>
+        <v>960</v>
+      </c>
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="13">
+        <f t="shared" si="2"/>
+        <v>970</v>
+      </c>
+      <c r="B103" s="13"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="13">
+        <f t="shared" si="2"/>
+        <v>980</v>
+      </c>
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="13">
+        <f t="shared" si="2"/>
+        <v>990</v>
+      </c>
+      <c r="B105" s="13"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="13">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="13">
+        <f t="shared" si="2"/>
+        <v>1010</v>
+      </c>
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="13">
+        <f t="shared" si="2"/>
+        <v>1020</v>
+      </c>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="13">
+        <f t="shared" si="2"/>
+        <v>1030</v>
+      </c>
+      <c r="B109" s="13"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E24"/>
@@ -23795,7 +28554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q97"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
@@ -25212,11 +29971,11 @@
         <v>64</v>
       </c>
       <c r="B74">
-        <f t="shared" ref="B74:B97" si="8">+P_0*(1-$A74/n/Z_0)^n</f>
+        <f t="shared" ref="B74:B96" si="8">+P_0*(1-$A74/n/Z_0)^n</f>
         <v>84.835399392669146</v>
       </c>
       <c r="C74">
-        <f t="shared" ref="C74:C97" si="9">+T_0*(1-$A74/n/Z_0)</f>
+        <f t="shared" ref="C74:C96" si="9">+T_0*(1-$A74/n/Z_0)</f>
         <v>223.06816191823265</v>
       </c>
     </row>
@@ -26096,7 +30855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/dynamic_context_server/ref/foundation/climate/climate_planets.xlsx
+++ b/dynamic_context_server/ref/foundation/climate/climate_planets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="195" windowWidth="17100" windowHeight="8265" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="195" windowWidth="17100" windowHeight="8265"/>
   </bookViews>
   <sheets>
     <sheet name="Mars English" sheetId="3" r:id="rId1"/>
@@ -418,6 +418,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF00"/>
       <color rgb="FFEB15EB"/>
     </mruColors>
   </colors>
@@ -3079,23 +3080,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="195263488"/>
-        <c:axId val="263609728"/>
+        <c:axId val="285245824"/>
+        <c:axId val="285247744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195263488"/>
+        <c:axId val="285245824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="t"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="263609728"/>
+        <c:crossAx val="285247744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="263609728"/>
+        <c:axId val="285247744"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3103,20 +3104,21 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195263488"/>
+        <c:crossAx val="285245824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4055,11 +4057,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="228368384"/>
-        <c:axId val="228370304"/>
+        <c:axId val="282347392"/>
+        <c:axId val="282358144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="228368384"/>
+        <c:axId val="282347392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -4086,12 +4088,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="228370304"/>
+        <c:crossAx val="282358144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="228370304"/>
+        <c:axId val="282358144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4118,7 +4120,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="228368384"/>
+        <c:crossAx val="282347392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4138,8 +4140,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.52785659145547981"/>
-          <c:y val="0.39494450434146477"/>
-          <c:w val="0.32196414319683425"/>
+          <c:y val="0.39494450434146489"/>
+          <c:w val="0.32196414319683436"/>
           <c:h val="8.0368503937007854E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -4149,7 +4151,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4477,23 +4479,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="228639488"/>
-        <c:axId val="228641024"/>
+        <c:axId val="284986368"/>
+        <c:axId val="284988160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="228639488"/>
+        <c:axId val="284986368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="228641024"/>
+        <c:crossAx val="284988160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="228641024"/>
+        <c:axId val="284988160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4501,19 +4503,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="228639488"/>
+        <c:crossAx val="284986368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4841,23 +4844,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="228702464"/>
-        <c:axId val="228704256"/>
+        <c:axId val="289932032"/>
+        <c:axId val="289933568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="228702464"/>
+        <c:axId val="289932032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="228704256"/>
+        <c:crossAx val="289933568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="228704256"/>
+        <c:axId val="289933568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4865,19 +4868,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="228702464"/>
+        <c:crossAx val="289932032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4951,7 +4955,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:srgbClr val="FFFF00"/>
               </a:solidFill>
               <a:prstDash val="sysDot"/>
             </a:ln>
@@ -5056,85 +5060,85 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>0.11518039891077703</c:v>
+                  <c:v>0.15793733836100529</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24053685108630898</c:v>
+                  <c:v>0.3084713639863384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43901537805422175</c:v>
+                  <c:v>0.53303851696839288</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.73013663336953272</c:v>
+                  <c:v>0.84644542277851265</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1344296371667362</c:v>
+                  <c:v>1.2634987068880423</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6733272674058921</c:v>
+                  <c:v>1.7990049947683255</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3690848033478984</c:v>
+                  <c:v>2.4677709118907072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.244714338485835</c:v>
+                  <c:v>3.2846030837265308</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.3239306405116915</c:v>
+                  <c:v>4.2643081357471431</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.6311055716183462</c:v>
+                  <c:v>5.4216926934238847</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.1912290972109245</c:v>
+                  <c:v>6.7715633822281012</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.0298754859319494</c:v>
+                  <c:v>8.3287268276311401</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.173173681045817</c:v>
+                  <c:v>10.107989655104339</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.6477810796386</c:v>
+                  <c:v>12.124158490119045</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16.480860135715833</c:v>
+                  <c:v>14.392039958146604</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19.700057332372975</c:v>
+                  <c:v>16.92644068465836</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.333484163056834</c:v>
+                  <c:v>19.742167295125657</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>27.409699832973729</c:v>
+                  <c:v>22.854026415019838</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>31.95769544581584</c:v>
+                  <c:v>26.276824669812246</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>37.006879482829667</c:v>
+                  <c:v>30.025368684974229</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42.587064414054993</c:v>
+                  <c:v>34.114465085977145</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>48.728454307591399</c:v>
+                  <c:v>38.558920498292309</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>55.461633323626884</c:v>
+                  <c:v>43.373541547391078</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>62.817554996877604</c:v>
+                  <c:v>48.573134858744794</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>70.827532224917093</c:v>
+                  <c:v>54.172507057824809</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>79.523227891273251</c:v>
+                  <c:v>60.186464770102461</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>88.936646061642634</c:v>
+                  <c:v>66.629814621049121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5262,85 +5266,85 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>0.13132073241977255</c:v>
+                  <c:v>0.15793733836100529</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27424349765508843</c:v>
+                  <c:v>0.3084713639863384</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.50053500018074182</c:v>
+                  <c:v>0.53303851696839288</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83245134039575341</c:v>
+                  <c:v>0.84644542277851265</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2933982885997244</c:v>
+                  <c:v>1.2634987068880423</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9078121313326835</c:v>
+                  <c:v>1.7990049947683255</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7010668002738538</c:v>
+                  <c:v>2.4677709118907072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.6993990943977253</c:v>
+                  <c:v>3.2846030837265308</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9298469532489353</c:v>
+                  <c:v>4.2643081357471431</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.4201974901199277</c:v>
+                  <c:v>5.4216926934238847</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.1989425368777518</c:v>
+                  <c:v>6.7715633822281012</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.295240107568169</c:v>
+                  <c:v>8.3287268276311401</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.738880617915406</c:v>
+                  <c:v>10.107989655104339</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.560256990177521</c:v>
+                  <c:v>12.124158490119045</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.790337977615124</c:v>
+                  <c:v>14.392039958146604</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22.460644190013024</c:v>
+                  <c:v>16.92644068465836</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>26.603226409828668</c:v>
+                  <c:v>19.742167295125657</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>31.250645869532885</c:v>
+                  <c:v>22.854026415019838</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>36.435956222408024</c:v>
+                  <c:v>26.276824669812246</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42.192686986784949</c:v>
+                  <c:v>30.025368684974229</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>48.554828281103084</c:v>
+                  <c:v>34.114465085977145</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>55.556816696851882</c:v>
+                  <c:v>38.558920498292309</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>63.233522180257651</c:v>
+                  <c:v>43.373541547391078</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>71.620235812861438</c:v>
+                  <c:v>48.573134858744794</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>80.752658396904351</c:v>
+                  <c:v>54.172507057824809</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>90.66688976442984</c:v>
+                  <c:v>60.186464770102461</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>101.39941873981651</c:v>
+                  <c:v>66.629814621049121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5468,85 +5472,85 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>1.8059117984186492E-2</c:v>
+                  <c:v>2.9130632680928543E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7713737878936164E-2</c:v>
+                  <c:v>5.6895766954938559E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.883315723966997E-2</c:v>
+                  <c:v>9.8315885298133843E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11447801649663653</c:v>
+                  <c:v>0.15612198452435136</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17786705772934328</c:v>
+                  <c:v>0.23304506144742834</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.26236073875423882</c:v>
+                  <c:v>0.33181611288120161</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.37144846156805444</c:v>
+                  <c:v>0.45516613563950847</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.50873828896085393</c:v>
+                  <c:v>0.60582612653618573</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.67794845590809472</c:v>
+                  <c:v>0.78652708238507074</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.88290022313640903</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.1275117636851295</c:v>
+                  <c:v>1.2489758761948109</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4157928634131551</c:v>
+                  <c:v>1.5361857077833405</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.7518402755326294</c:v>
+                  <c:v>1.8643604915794267</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.1398336094534969</c:v>
+                  <c:v>2.2362312243969051</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.5840316623866091</c:v>
+                  <c:v>2.6545289030496129</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.0887691223933924</c:v>
+                  <c:v>3.1219845243513875</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.6584535864405927</c:v>
+                  <c:v>3.6413290851160678</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.2975628481565744</c:v>
+                  <c:v>4.2152935821574875</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.0106424184704554</c:v>
+                  <c:v>4.8466090122894858</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.8023032488773572</c:v>
+                  <c:v>5.5380063723258983</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.6772196322165049</c:v>
+                  <c:v>6.2922166590805659</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.6401272599299483</c:v>
+                  <c:v>7.1119708693673189</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.6958214180429589</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.8491553067593287</c:v>
+                  <c:v>8.9590350477924474</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>11.105038470732964</c:v>
+                  <c:v>9.991807009558487</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>12.46843532886464</c:v>
+                  <c:v>11.101046882111971</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>13.94436379395766</c:v>
+                  <c:v>12.289485662266724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5674,95 +5678,95 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>9.1293799240082102E-3</c:v>
+                  <c:v>1.5625E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.906532986565334E-2</c:v>
+                  <c:v>3.0517578125E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4797050684325051E-2</c:v>
+                  <c:v>5.2734375E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7871780142298775E-2</c:v>
+                  <c:v>8.3740234375E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.9916680725967577E-2</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13263055611731789</c:v>
+                  <c:v>0.177978515625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.18777739482141673</c:v>
+                  <c:v>0.244140625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25718117163199472</c:v>
+                  <c:v>0.324951171875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.34272155640709345</c:v>
+                  <c:v>0.421875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.44633030135037322</c:v>
+                  <c:v>0.536376953125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.56998815050013107</c:v>
+                  <c:v>0.669921875</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.71572216069003114</c:v>
+                  <c:v>0.823974609375</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.88560335313834793</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.081744635146022</c:v>
+                  <c:v>1.199462890625</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3062989456213221</c:v>
+                  <c:v>1.423828125</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5614575883809396</c:v>
+                  <c:v>1.674560546875</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8494487246947979</c:v>
+                  <c:v>1.953125</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.1725360021723978</c:v>
+                  <c:v>2.260986328125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.5330173013778432</c:v>
+                  <c:v>2.599609375</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.9332235848779047</c:v>
+                  <c:v>2.970458984375</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.3755178360277411</c:v>
+                  <c:v>3.375</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.8622940768618252</c:v>
+                  <c:v>3.814697265625</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.3959764561125185</c:v>
+                  <c:v>4.291015625</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.9790183997193704</c:v>
+                  <c:v>4.805419921875</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.6139018172883031</c:v>
+                  <c:v>5.359375</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.3031363588634957</c:v>
+                  <c:v>5.954345703125</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.0492587171254737</c:v>
+                  <c:v>6.591796875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="228887552"/>
-        <c:axId val="230966400"/>
+        <c:axId val="290181120"/>
+        <c:axId val="290183040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="228887552"/>
+        <c:axId val="290181120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -5799,19 +5803,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230966400"/>
-        <c:crossesAt val="1.0000000000000007E-4"/>
+        <c:crossAx val="290183040"/>
+        <c:crossesAt val="1.0000000000000009E-4"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
         <c:minorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230966400"/>
+        <c:axId val="290183040"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="maxMin"/>
           <c:max val="10"/>
-          <c:min val="1.0000000000000007E-4"/>
+          <c:min val="1.0000000000000009E-4"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:title>
@@ -5834,7 +5838,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="228887552"/>
+        <c:crossAx val="290181120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5855,7 +5859,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.81837904877274958"/>
           <c:y val="0.73526584183891341"/>
-          <c:w val="0.16147443108073031"/>
+          <c:w val="0.16147443108073034"/>
           <c:h val="0.17949268992369721"/>
         </c:manualLayout>
       </c:layout>
@@ -5893,7 +5897,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId2"/>
@@ -5924,7 +5928,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33544364121720294"/>
+          <c:x val="0.33544364121720305"/>
           <c:y val="0.91631205673758853"/>
         </c:manualLayout>
       </c:layout>
@@ -5937,9 +5941,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.1745006243151645"/>
-          <c:y val="0.14410184708219886"/>
+          <c:y val="0.14410184708219889"/>
           <c:w val="0.7792113443157489"/>
-          <c:h val="0.75606254537331763"/>
+          <c:h val="0.75606254537331752"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -6325,11 +6329,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="231051264"/>
-        <c:axId val="231053184"/>
+        <c:axId val="290345728"/>
+        <c:axId val="290347648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="231051264"/>
+        <c:axId val="290345728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6366,19 +6370,19 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.4083041752886693"/>
+              <c:x val="0.40830417528866941"/>
               <c:y val="1.767174847824873E-2"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231053184"/>
+        <c:crossAx val="290347648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="231053184"/>
+        <c:axId val="290347648"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="maxMin"/>
@@ -6418,7 +6422,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231051264"/>
+        <c:crossAx val="290345728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6429,10 +6433,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.49992222816808096"/>
+          <c:x val="0.49992222816808102"/>
           <c:y val="0.17886942870458947"/>
-          <c:w val="0.17406143344709904"/>
-          <c:h val="0.13003674540682417"/>
+          <c:w val="0.1740614334470991"/>
+          <c:h val="0.13003674540682422"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -6458,7 +6462,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -6490,7 +6494,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.58615976912838497"/>
-          <c:y val="0.19602318130423288"/>
+          <c:y val="0.19602318130423291"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -6502,9 +6506,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.12904143498650344"/>
-          <c:y val="0.17492836076807755"/>
-          <c:w val="0.58576494881267804"/>
-          <c:h val="0.78036881048600337"/>
+          <c:y val="0.17492836076807758"/>
+          <c:w val="0.58576494881267782"/>
+          <c:h val="0.78036881048600348"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -6631,85 +6635,85 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>0.10103978921570313</c:v>
+                  <c:v>0.14018701824402613</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22063655968609616</c:v>
+                  <c:v>0.27380277000786363</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41764937731341639</c:v>
+                  <c:v>0.47313118657358838</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71635055540615489</c:v>
+                  <c:v>0.75131480090157765</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1431347219853294</c:v>
+                  <c:v>1.121496145952209</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7263595235526783</c:v>
+                  <c:v>1.5968177546858604</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4962177205073446</c:v>
+                  <c:v>2.190422160062909</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4846315140944419</c:v>
+                  <c:v>2.915451895043732</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.7251633097064918</c:v>
+                  <c:v>3.785049492588707</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.2529390430609579</c:v>
+                  <c:v>4.8123574856582101</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.1045813669510665</c:v>
+                  <c:v>6.0105184072126212</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.318150747355084</c:v>
+                  <c:v>7.3926747902123182</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.933093019610002</c:v>
+                  <c:v>8.9719691676176723</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.990192302367483</c:v>
+                  <c:v>10.761544072389071</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.531528413921222</c:v>
+                  <c:v>12.774542037486883</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23.600438115463543</c:v>
+                  <c:v>15.024105595871495</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28.241479639820309</c:v>
+                  <c:v>17.523377280503272</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33.500400065828394</c:v>
+                  <c:v>20.285499624342595</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>39.424105176840413</c:v>
+                  <c:v>23.323615160349856</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>46.060631503084643</c:v>
+                  <c:v>26.650866421485407</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>53.459120296117291</c:v>
+                  <c:v>30.280395940709656</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>61.6697932224751</c:v>
+                  <c:v>34.225346250982952</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>70.743929595112405</c:v>
+                  <c:v>38.498859885265681</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>80.733844986938223</c:v>
+                  <c:v>43.114079376518234</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>91.692871091987882</c:v>
+                  <c:v>48.08414725770097</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>103.67533671740209</c:v>
+                  <c:v>53.422206061774297</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>116.73654980415721</c:v>
+                  <c:v>59.141398321698546</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6837,85 +6841,85 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>0.10103978921570313</c:v>
+                  <c:v>0.14018701824402613</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22063655968609616</c:v>
+                  <c:v>0.27380277000786363</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41764937731341639</c:v>
+                  <c:v>0.47313118657358838</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71635055540615489</c:v>
+                  <c:v>0.75131480090157765</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1431347219853294</c:v>
+                  <c:v>1.121496145952209</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7263595235526783</c:v>
+                  <c:v>1.5968177546858604</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4962177205073446</c:v>
+                  <c:v>2.190422160062909</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4846315140944419</c:v>
+                  <c:v>2.915451895043732</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.7251633097064918</c:v>
+                  <c:v>3.785049492588707</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.2529390430609579</c:v>
+                  <c:v>4.8123574856582101</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.1045813669510665</c:v>
+                  <c:v>6.0105184072126212</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.318150747355084</c:v>
+                  <c:v>7.3926747902123182</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.933093019610002</c:v>
+                  <c:v>8.9719691676176723</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.990192302367483</c:v>
+                  <c:v>10.761544072389071</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.531528413921222</c:v>
+                  <c:v>12.774542037486883</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23.600438115463543</c:v>
+                  <c:v>15.024105595871495</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28.241479639820309</c:v>
+                  <c:v>17.523377280503272</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>33.500400065828394</c:v>
+                  <c:v>20.285499624342595</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>39.424105176840413</c:v>
+                  <c:v>23.323615160349856</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>46.060631503084643</c:v>
+                  <c:v>26.650866421485407</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>53.459120296117291</c:v>
+                  <c:v>30.280395940709656</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>61.6697932224751</c:v>
+                  <c:v>34.225346250982952</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>70.743929595112405</c:v>
+                  <c:v>38.498859885265681</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>80.733844986938223</c:v>
+                  <c:v>43.114079376518234</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>91.692871091987882</c:v>
+                  <c:v>48.08414725770097</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>103.67533671740209</c:v>
+                  <c:v>53.422206061774297</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>116.73654980415721</c:v>
+                  <c:v>59.141398321698546</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7043,85 +7047,85 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>1.802656843934175E-2</c:v>
+                  <c:v>3.1993985130795405E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9363898858809046E-2</c:v>
+                  <c:v>6.2488252208584776E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4513071951447379E-2</c:v>
+                  <c:v>0.1079796998164345</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12780452546295096</c:v>
+                  <c:v>0.17146776406035669</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20394734055971125</c:v>
+                  <c:v>0.25595188104636324</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30800082169406584</c:v>
+                  <c:v>0.3644314868804665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.44535167707208428</c:v>
+                  <c:v>0.4999060176686782</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.62169516546208281</c:v>
+                  <c:v>0.66537490951701084</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.84301917542255311</c:v>
+                  <c:v>0.86383759853147601</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1155905458802389</c:v>
+                  <c:v>1.0982935208180864</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4459431459389025</c:v>
+                  <c:v>1.3717421124828535</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.840867365801415</c:v>
+                  <c:v>1.6871828096317891</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.3074007602357445</c:v>
+                  <c:v>2.0476150483709059</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.8528196479260357</c:v>
+                  <c:v>2.4560382648062169</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.4846315140944419</c:v>
+                  <c:v>2.915451895043732</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.2105680958876537</c:v>
+                  <c:v>3.4288553751894639</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.0385790539275561</c:v>
+                  <c:v>3.9992481413494256</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.9768261515546568</c:v>
+                  <c:v>4.6296296296296306</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.0336778772661033</c:v>
+                  <c:v>5.3229992761360867</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.2177044567766409</c:v>
+                  <c:v>6.0823565169748077</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.5376732097852628</c:v>
+                  <c:v>6.9107007882518081</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11.002544213465427</c:v>
+                  <c:v>7.8110315260730987</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12.621466240312309</c:v>
+                  <c:v>8.7863481665446912</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14.403772942571276</c:v>
+                  <c:v>9.8396501457725929</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>16.358979259257723</c:v>
+                  <c:v>10.973936899862828</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>18.496778024924765</c:v>
+                  <c:v>12.192207864921393</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20.827036761971158</c:v>
+                  <c:v>13.497462477054313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7249,85 +7253,85 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>6.8680217447939975E-3</c:v>
+                  <c:v>1.3991224004743024E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4997425285455184E-2</c:v>
+                  <c:v>2.732660938426373E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.838906362883048E-2</c:v>
+                  <c:v>4.7220381016007715E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8692809333969814E-2</c:v>
+                  <c:v>7.4984216150419655E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.7702795985288023E-2</c:v>
+                  <c:v>0.11192979203794419</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11734659028019127</c:v>
+                  <c:v>0.15936878592902598</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16967649791494324</c:v>
+                  <c:v>0.21861287507410984</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2368623806241629</c:v>
+                  <c:v>0.29097373672364013</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.32118559045571865</c:v>
+                  <c:v>0.37776304812806172</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.42503375798748871</c:v>
+                  <c:v>0.48029248653781914</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.55089625080117866</c:v>
+                  <c:v>0.59987372920335724</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.70136016958241654</c:v>
+                  <c:v>0.73781845337512053</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.87910678333363224</c:v>
+                  <c:v>0.89543833630355352</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0869083287738057</c:v>
+                  <c:v>1.0740450552391014</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3276251157798822</c:v>
+                  <c:v>1.2749502874322078</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6042028929577146</c:v>
+                  <c:v>1.4994657101333189</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9196704365382631</c:v>
+                  <c:v>1.7489030005928787</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2771373327018933</c:v>
+                  <c:v>2.0245738360613306</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.6797919287573553</c:v>
+                  <c:v>2.327789893789121</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.1308994327648887</c:v>
+                  <c:v>2.6598628510266931</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.6338001444903023</c:v>
+                  <c:v>3.0221043850244937</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.1919078032189958</c:v>
+                  <c:v>3.4158261730329658</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.808708040098483</c:v>
+                  <c:v>3.8423398923025531</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.4877569244270052</c:v>
+                  <c:v>4.3029572200837025</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.232679594748137</c:v>
+                  <c:v>4.7989898336268579</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.0471689668102977</c:v>
+                  <c:v>5.3317494101824625</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.934984511453977</c:v>
+                  <c:v>5.9025476270009642</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7945,11 +7949,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="266785536"/>
-        <c:axId val="266787456"/>
+        <c:axId val="290226176"/>
+        <c:axId val="290228096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="266785536"/>
+        <c:axId val="290226176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -7986,19 +7990,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266787456"/>
-        <c:crossesAt val="1.0000000000000011E-4"/>
+        <c:crossAx val="290228096"/>
+        <c:crossesAt val="1.0000000000000013E-4"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
         <c:minorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="266787456"/>
+        <c:axId val="290228096"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="maxMin"/>
           <c:max val="1"/>
-          <c:min val="1.0000000000000002E-4"/>
+          <c:min val="1.0000000000000005E-4"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:title>
@@ -8021,7 +8025,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266785536"/>
+        <c:crossAx val="290226176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8040,10 +8044,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.73307099053376623"/>
+          <c:x val="0.73307099053376634"/>
           <c:y val="0.38873122093209089"/>
-          <c:w val="0.25333333333333335"/>
-          <c:h val="0.52948116486547525"/>
+          <c:w val="0.2533333333333333"/>
+          <c:h val="0.52948116486547514"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -8080,7 +8084,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId2"/>
@@ -8123,10 +8127,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.24255215086066048"/>
-          <c:y val="0.17492836076807755"/>
-          <c:w val="0.70089217763442213"/>
-          <c:h val="0.78036881048600359"/>
+          <c:x val="0.24255215086066051"/>
+          <c:y val="0.17492836076807758"/>
+          <c:w val="0.70089217763442224"/>
+          <c:h val="0.78036881048600371"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -8337,11 +8341,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="266656384"/>
-        <c:axId val="267367168"/>
+        <c:axId val="303036672"/>
+        <c:axId val="263459200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="266656384"/>
+        <c:axId val="303036672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="260"/>
@@ -8378,19 +8382,19 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267367168"/>
-        <c:crossesAt val="1.0000000000000015E-4"/>
+        <c:crossAx val="263459200"/>
+        <c:crossesAt val="1.0000000000000018E-4"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
         <c:minorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="267367168"/>
+        <c:axId val="263459200"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="maxMin"/>
-          <c:max val="1.0000000000000002E-2"/>
-          <c:min val="1.0000000000000007E-4"/>
+          <c:max val="1.0000000000000004E-2"/>
+          <c:min val="1.0000000000000009E-4"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:title>
@@ -8413,14 +8417,14 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.8500669344042837E-2"/>
-              <c:y val="0.4123485844056588"/>
+              <c:x val="1.850066934404284E-2"/>
+              <c:y val="0.41234858440565886"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266656384"/>
+        <c:crossAx val="303036672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8440,9 +8444,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.18330795735841071"/>
-          <c:y val="0.61975426320670901"/>
+          <c:y val="0.61975426320670912"/>
           <c:w val="0.25333333333333324"/>
-          <c:h val="0.25225351413593355"/>
+          <c:h val="0.2522535141359335"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -8479,7 +8483,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8654,11 +8658,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="226095488"/>
-        <c:axId val="226097024"/>
+        <c:axId val="285100672"/>
+        <c:axId val="285110656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="226095488"/>
+        <c:axId val="285100672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="350"/>
@@ -8667,12 +8671,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226097024"/>
+        <c:crossAx val="285110656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="226097024"/>
+        <c:axId val="285110656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="15000"/>
@@ -8682,7 +8686,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226095488"/>
+        <c:crossAx val="285100672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8696,7 +8700,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9080,11 +9084,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="227386496"/>
-        <c:axId val="227388416"/>
+        <c:axId val="285349760"/>
+        <c:axId val="285675520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="227386496"/>
+        <c:axId val="285349760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -9111,12 +9115,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="227388416"/>
+        <c:crossAx val="285675520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="227388416"/>
+        <c:axId val="285675520"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -9141,7 +9145,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="227386496"/>
+        <c:crossAx val="285349760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9153,9 +9157,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.19725000000000001"/>
-          <c:y val="0.60571376494604823"/>
+          <c:y val="0.60571376494604812"/>
           <c:w val="0.25830555555555557"/>
-          <c:h val="0.33486876640419971"/>
+          <c:h val="0.33486876640419982"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -9164,7 +9168,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10080,23 +10084,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="227484416"/>
-        <c:axId val="227485952"/>
+        <c:axId val="285741824"/>
+        <c:axId val="285743360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="227484416"/>
+        <c:axId val="285741824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="t"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="227485952"/>
+        <c:crossAx val="285743360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="227485952"/>
+        <c:axId val="285743360"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -10104,7 +10108,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="227484416"/>
+        <c:crossAx val="285741824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10118,7 +10122,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10137,7 +10141,7 @@
           <c:x val="0.11940036776863759"/>
           <c:y val="3.2534856219895596E-2"/>
           <c:w val="0.81040662807422659"/>
-          <c:h val="0.84942579499662363"/>
+          <c:h val="0.84942579499662352"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -11168,11 +11172,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="227614080"/>
-        <c:axId val="227628544"/>
+        <c:axId val="288200960"/>
+        <c:axId val="289432320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="227614080"/>
+        <c:axId val="288200960"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -11200,12 +11204,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="227628544"/>
+        <c:crossAx val="289432320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="227628544"/>
+        <c:axId val="289432320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -11233,13 +11237,13 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="4.2361191368994154E-2"/>
-              <c:y val="0.33229314387610381"/>
+              <c:y val="0.33229314387610376"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="227614080"/>
+        <c:crossAx val="288200960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11258,9 +11262,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.64177944409035659"/>
+          <c:x val="0.64177944409035681"/>
           <c:y val="0.32485949624153238"/>
-          <c:w val="0.21894649275276104"/>
+          <c:w val="0.21894649275276112"/>
           <c:h val="0.1483726226529376"/>
         </c:manualLayout>
       </c:layout>
@@ -11270,7 +11274,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11287,8 +11291,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.19976873728935191"/>
-          <c:y val="0.13226314452628912"/>
-          <c:w val="0.72683857708649413"/>
+          <c:y val="0.13226314452628918"/>
+          <c:w val="0.72683857708649424"/>
           <c:h val="0.84898871512028762"/>
         </c:manualLayout>
       </c:layout>
@@ -12092,11 +12096,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="227934976"/>
-        <c:axId val="227936896"/>
+        <c:axId val="289487104"/>
+        <c:axId val="289522432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="227934976"/>
+        <c:axId val="289487104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="800"/>
@@ -12140,12 +12144,12 @@
             <a:prstDash val="sysDot"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="227936896"/>
+        <c:crossAx val="289522432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="227936896"/>
+        <c:axId val="289522432"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="maxMin"/>
@@ -12191,7 +12195,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="227934976"/>
+        <c:crossAx val="289487104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12202,10 +12206,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.52600455651282019"/>
+          <c:x val="0.5260045565128203"/>
           <c:y val="0.14313460817397822"/>
           <c:w val="0.17238091647274997"/>
-          <c:h val="0.16666279618273527"/>
+          <c:h val="0.1666627961827353"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -12214,7 +12218,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -13264,11 +13268,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="228089856"/>
-        <c:axId val="228091776"/>
+        <c:axId val="289809152"/>
+        <c:axId val="289811456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="228089856"/>
+        <c:axId val="289809152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -13295,12 +13299,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="228091776"/>
+        <c:crossAx val="289811456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="228091776"/>
+        <c:axId val="289811456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -13327,7 +13331,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="228089856"/>
+        <c:crossAx val="289809152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13347,8 +13351,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.52785659145547981"/>
-          <c:y val="0.39494450434146455"/>
-          <c:w val="0.32196414319683403"/>
+          <c:y val="0.39494450434146466"/>
+          <c:w val="0.32196414319683414"/>
           <c:h val="8.0368503937007854E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -13358,7 +13362,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -14291,11 +14295,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="228126080"/>
-        <c:axId val="228288000"/>
+        <c:axId val="289873280"/>
+        <c:axId val="289879936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="228126080"/>
+        <c:axId val="289873280"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -14323,12 +14327,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="228288000"/>
+        <c:crossAx val="289879936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="228288000"/>
+        <c:axId val="289879936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -14362,7 +14366,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="228126080"/>
+        <c:crossAx val="289873280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14381,9 +14385,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.64177944409035692"/>
+          <c:x val="0.64177944409035703"/>
           <c:y val="0.32485949624153238"/>
-          <c:w val="0.21894649275276123"/>
+          <c:w val="0.21894649275276132"/>
           <c:h val="0.1483726226529376"/>
         </c:manualLayout>
       </c:layout>
@@ -14393,7 +14397,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -14410,8 +14414,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.19976873728935191"/>
-          <c:y val="0.13226314452628923"/>
-          <c:w val="0.72683857708649435"/>
+          <c:y val="0.13226314452628926"/>
+          <c:w val="0.72683857708649446"/>
           <c:h val="0.84898871512028762"/>
         </c:manualLayout>
       </c:layout>
@@ -15227,11 +15231,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="228336384"/>
-        <c:axId val="228338304"/>
+        <c:axId val="289910144"/>
+        <c:axId val="289929088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="228336384"/>
+        <c:axId val="289910144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="800"/>
@@ -15270,7 +15274,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.52789493116242747"/>
+              <c:x val="0.52789493116242758"/>
               <c:y val="3.2356762640091151E-2"/>
             </c:manualLayout>
           </c:layout>
@@ -15282,12 +15286,12 @@
             <a:prstDash val="sysDot"/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="228338304"/>
+        <c:crossAx val="289929088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="228338304"/>
+        <c:axId val="289929088"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="maxMin"/>
@@ -15333,7 +15337,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="228336384"/>
+        <c:crossAx val="289910144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15344,10 +15348,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.52600455651282041"/>
+          <c:x val="0.52600455651282052"/>
           <c:y val="0.14313460817397822"/>
           <c:w val="0.17238091647274997"/>
-          <c:h val="0.16666279618273533"/>
+          <c:h val="0.16666279618273536"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -15356,7 +15360,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -16142,16 +16146,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16522,7 +16526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E225"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -21311,7 +21315,7 @@
   <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21376,7 +21380,7 @@
     <row r="3" spans="1:9">
       <c r="A3" s="13"/>
       <c r="B3" s="13">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -21388,7 +21392,7 @@
         <v>5.25</v>
       </c>
       <c r="H3" s="3">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>31</v>
@@ -21462,19 +21466,19 @@
       </c>
       <c r="B10" s="13">
         <f>+B$1*($A10/B$2)^$B$3</f>
-        <v>0.10103978921570313</v>
+        <v>0.14018701824402613</v>
       </c>
       <c r="C10" s="13">
         <f t="shared" ref="C10:E10" si="0">+C$1*($A10/C$2)^$B$3</f>
-        <v>0.10103978921570313</v>
+        <v>0.14018701824402613</v>
       </c>
       <c r="D10" s="13">
         <f t="shared" si="0"/>
-        <v>6.8680217447939975E-3</v>
+        <v>1.3991224004743024E-2</v>
       </c>
       <c r="E10" s="13">
         <f t="shared" si="0"/>
-        <v>1.802656843934175E-2</v>
+        <v>3.1993985130795405E-2</v>
       </c>
       <c r="F10" s="3">
         <f>+F$1*($A10/F$2)^$F$3</f>
@@ -21496,19 +21500,19 @@
       </c>
       <c r="B11" s="13">
         <f t="shared" ref="B11:E36" si="1">+B$1*($A11/B$2)^$B$3</f>
-        <v>0.22063655968609616</v>
+        <v>0.27380277000786363</v>
       </c>
       <c r="C11" s="13">
         <f t="shared" si="1"/>
-        <v>0.22063655968609616</v>
+        <v>0.27380277000786363</v>
       </c>
       <c r="D11" s="13">
         <f t="shared" si="1"/>
-        <v>1.4997425285455184E-2</v>
+        <v>2.732660938426373E-2</v>
       </c>
       <c r="E11" s="13">
         <f t="shared" si="1"/>
-        <v>3.9363898858809046E-2</v>
+        <v>6.2488252208584776E-2</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" ref="F11:F36" si="2">+F$1*($A11/F$2)^$F$3</f>
@@ -21530,19 +21534,19 @@
       </c>
       <c r="B12" s="13">
         <f t="shared" si="1"/>
-        <v>0.41764937731341639</v>
+        <v>0.47313118657358838</v>
       </c>
       <c r="C12" s="13">
         <f t="shared" si="1"/>
-        <v>0.41764937731341639</v>
+        <v>0.47313118657358838</v>
       </c>
       <c r="D12" s="13">
         <f t="shared" si="1"/>
-        <v>2.838906362883048E-2</v>
+        <v>4.7220381016007715E-2</v>
       </c>
       <c r="E12" s="13">
         <f t="shared" si="1"/>
-        <v>7.4513071951447379E-2</v>
+        <v>0.1079796998164345</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="2"/>
@@ -21564,19 +21568,19 @@
       </c>
       <c r="B13" s="13">
         <f t="shared" si="1"/>
-        <v>0.71635055540615489</v>
+        <v>0.75131480090157765</v>
       </c>
       <c r="C13" s="13">
         <f t="shared" si="1"/>
-        <v>0.71635055540615489</v>
+        <v>0.75131480090157765</v>
       </c>
       <c r="D13" s="13">
         <f t="shared" si="1"/>
-        <v>4.8692809333969814E-2</v>
+        <v>7.4984216150419655E-2</v>
       </c>
       <c r="E13" s="13">
         <f t="shared" si="1"/>
-        <v>0.12780452546295096</v>
+        <v>0.17146776406035669</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="2"/>
@@ -21598,19 +21602,19 @@
       </c>
       <c r="B14" s="13">
         <f t="shared" si="1"/>
-        <v>1.1431347219853294</v>
+        <v>1.121496145952209</v>
       </c>
       <c r="C14" s="13">
         <f t="shared" si="1"/>
-        <v>1.1431347219853294</v>
+        <v>1.121496145952209</v>
       </c>
       <c r="D14" s="13">
         <f t="shared" si="1"/>
-        <v>7.7702795985288023E-2</v>
+        <v>0.11192979203794419</v>
       </c>
       <c r="E14" s="13">
         <f t="shared" si="1"/>
-        <v>0.20394734055971125</v>
+        <v>0.25595188104636324</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="2"/>
@@ -21632,19 +21636,19 @@
       </c>
       <c r="B15" s="13">
         <f t="shared" si="1"/>
-        <v>1.7263595235526783</v>
+        <v>1.5968177546858604</v>
       </c>
       <c r="C15" s="13">
         <f t="shared" si="1"/>
-        <v>1.7263595235526783</v>
+        <v>1.5968177546858604</v>
       </c>
       <c r="D15" s="13">
         <f t="shared" si="1"/>
-        <v>0.11734659028019127</v>
+        <v>0.15936878592902598</v>
       </c>
       <c r="E15" s="13">
         <f t="shared" si="1"/>
-        <v>0.30800082169406584</v>
+        <v>0.3644314868804665</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="2"/>
@@ -21666,19 +21670,19 @@
       </c>
       <c r="B16" s="13">
         <f t="shared" si="1"/>
-        <v>2.4962177205073446</v>
+        <v>2.190422160062909</v>
       </c>
       <c r="C16" s="13">
         <f t="shared" si="1"/>
-        <v>2.4962177205073446</v>
+        <v>2.190422160062909</v>
       </c>
       <c r="D16" s="13">
         <f t="shared" si="1"/>
-        <v>0.16967649791494324</v>
+        <v>0.21861287507410984</v>
       </c>
       <c r="E16" s="13">
         <f t="shared" si="1"/>
-        <v>0.44535167707208428</v>
+        <v>0.4999060176686782</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="2"/>
@@ -21700,19 +21704,19 @@
       </c>
       <c r="B17" s="13">
         <f t="shared" si="1"/>
-        <v>3.4846315140944419</v>
+        <v>2.915451895043732</v>
       </c>
       <c r="C17" s="13">
         <f t="shared" si="1"/>
-        <v>3.4846315140944419</v>
+        <v>2.915451895043732</v>
       </c>
       <c r="D17" s="13">
         <f t="shared" si="1"/>
-        <v>0.2368623806241629</v>
+        <v>0.29097373672364013</v>
       </c>
       <c r="E17" s="13">
         <f t="shared" si="1"/>
-        <v>0.62169516546208281</v>
+        <v>0.66537490951701084</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="2"/>
@@ -21734,19 +21738,19 @@
       </c>
       <c r="B18" s="13">
         <f t="shared" si="1"/>
-        <v>4.7251633097064918</v>
+        <v>3.785049492588707</v>
       </c>
       <c r="C18" s="13">
         <f t="shared" si="1"/>
-        <v>4.7251633097064918</v>
+        <v>3.785049492588707</v>
       </c>
       <c r="D18" s="13">
         <f t="shared" si="1"/>
-        <v>0.32118559045571865</v>
+        <v>0.37776304812806172</v>
       </c>
       <c r="E18" s="13">
         <f t="shared" si="1"/>
-        <v>0.84301917542255311</v>
+        <v>0.86383759853147601</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="2"/>
@@ -21768,19 +21772,19 @@
       </c>
       <c r="B19" s="13">
         <f t="shared" si="1"/>
-        <v>6.2529390430609579</v>
+        <v>4.8123574856582101</v>
       </c>
       <c r="C19" s="13">
         <f t="shared" si="1"/>
-        <v>6.2529390430609579</v>
+        <v>4.8123574856582101</v>
       </c>
       <c r="D19" s="13">
         <f t="shared" si="1"/>
-        <v>0.42503375798748871</v>
+        <v>0.48029248653781914</v>
       </c>
       <c r="E19" s="13">
         <f t="shared" si="1"/>
-        <v>1.1155905458802389</v>
+        <v>1.0982935208180864</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="2"/>
@@ -21802,19 +21806,19 @@
       </c>
       <c r="B20" s="13">
         <f t="shared" si="1"/>
-        <v>8.1045813669510665</v>
+        <v>6.0105184072126212</v>
       </c>
       <c r="C20" s="13">
         <f t="shared" si="1"/>
-        <v>8.1045813669510665</v>
+        <v>6.0105184072126212</v>
       </c>
       <c r="D20" s="13">
         <f t="shared" si="1"/>
-        <v>0.55089625080117866</v>
+        <v>0.59987372920335724</v>
       </c>
       <c r="E20" s="13">
         <f t="shared" si="1"/>
-        <v>1.4459431459389025</v>
+        <v>1.3717421124828535</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="2"/>
@@ -21836,19 +21840,19 @@
       </c>
       <c r="B21" s="13">
         <f t="shared" si="1"/>
-        <v>10.318150747355084</v>
+        <v>7.3926747902123182</v>
       </c>
       <c r="C21" s="13">
         <f t="shared" si="1"/>
-        <v>10.318150747355084</v>
+        <v>7.3926747902123182</v>
       </c>
       <c r="D21" s="13">
         <f t="shared" si="1"/>
-        <v>0.70136016958241654</v>
+        <v>0.73781845337512053</v>
       </c>
       <c r="E21" s="13">
         <f t="shared" si="1"/>
-        <v>1.840867365801415</v>
+        <v>1.6871828096317891</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="2"/>
@@ -21870,19 +21874,19 @@
       </c>
       <c r="B22" s="13">
         <f t="shared" si="1"/>
-        <v>12.933093019610002</v>
+        <v>8.9719691676176723</v>
       </c>
       <c r="C22" s="13">
         <f t="shared" si="1"/>
-        <v>12.933093019610002</v>
+        <v>8.9719691676176723</v>
       </c>
       <c r="D22" s="13">
         <f t="shared" si="1"/>
-        <v>0.87910678333363224</v>
+        <v>0.89543833630355352</v>
       </c>
       <c r="E22" s="13">
         <f t="shared" si="1"/>
-        <v>2.3074007602357445</v>
+        <v>2.0476150483709059</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="2"/>
@@ -21904,19 +21908,19 @@
       </c>
       <c r="B23" s="13">
         <f t="shared" si="1"/>
-        <v>15.990192302367483</v>
+        <v>10.761544072389071</v>
       </c>
       <c r="C23" s="13">
         <f t="shared" si="1"/>
-        <v>15.990192302367483</v>
+        <v>10.761544072389071</v>
       </c>
       <c r="D23" s="13">
         <f t="shared" si="1"/>
-        <v>1.0869083287738057</v>
+        <v>1.0740450552391014</v>
       </c>
       <c r="E23" s="13">
         <f t="shared" si="1"/>
-        <v>2.8528196479260357</v>
+        <v>2.4560382648062169</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="2"/>
@@ -21938,19 +21942,19 @@
       </c>
       <c r="B24" s="13">
         <f t="shared" si="1"/>
-        <v>19.531528413921222</v>
+        <v>12.774542037486883</v>
       </c>
       <c r="C24" s="13">
         <f t="shared" si="1"/>
-        <v>19.531528413921222</v>
+        <v>12.774542037486883</v>
       </c>
       <c r="D24" s="13">
         <f t="shared" si="1"/>
-        <v>1.3276251157798822</v>
+        <v>1.2749502874322078</v>
       </c>
       <c r="E24" s="13">
         <f t="shared" si="1"/>
-        <v>3.4846315140944419</v>
+        <v>2.915451895043732</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="2"/>
@@ -21972,19 +21976,19 @@
       </c>
       <c r="B25" s="13">
         <f t="shared" si="1"/>
-        <v>23.600438115463543</v>
+        <v>15.024105595871495</v>
       </c>
       <c r="C25" s="13">
         <f t="shared" si="1"/>
-        <v>23.600438115463543</v>
+        <v>15.024105595871495</v>
       </c>
       <c r="D25" s="13">
         <f t="shared" si="1"/>
-        <v>1.6042028929577146</v>
+        <v>1.4994657101333189</v>
       </c>
       <c r="E25" s="13">
         <f t="shared" si="1"/>
-        <v>4.2105680958876537</v>
+        <v>3.4288553751894639</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="2"/>
@@ -22006,19 +22010,19 @@
       </c>
       <c r="B26" s="13">
         <f t="shared" si="1"/>
-        <v>28.241479639820309</v>
+        <v>17.523377280503272</v>
       </c>
       <c r="C26" s="13">
         <f t="shared" si="1"/>
-        <v>28.241479639820309</v>
+        <v>17.523377280503272</v>
       </c>
       <c r="D26" s="13">
         <f t="shared" si="1"/>
-        <v>1.9196704365382631</v>
+        <v>1.7489030005928787</v>
       </c>
       <c r="E26" s="13">
         <f t="shared" si="1"/>
-        <v>5.0385790539275561</v>
+        <v>3.9992481413494256</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="2"/>
@@ -22040,19 +22044,19 @@
       </c>
       <c r="B27" s="13">
         <f t="shared" si="1"/>
-        <v>33.500400065828394</v>
+        <v>20.285499624342595</v>
       </c>
       <c r="C27" s="13">
         <f t="shared" si="1"/>
-        <v>33.500400065828394</v>
+        <v>20.285499624342595</v>
       </c>
       <c r="D27" s="13">
         <f t="shared" si="1"/>
-        <v>2.2771373327018933</v>
+        <v>2.0245738360613306</v>
       </c>
       <c r="E27" s="13">
         <f t="shared" si="1"/>
-        <v>5.9768261515546568</v>
+        <v>4.6296296296296306</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="2"/>
@@ -22074,19 +22078,19 @@
       </c>
       <c r="B28" s="13">
         <f t="shared" si="1"/>
-        <v>39.424105176840413</v>
+        <v>23.323615160349856</v>
       </c>
       <c r="C28" s="13">
         <f t="shared" si="1"/>
-        <v>39.424105176840413</v>
+        <v>23.323615160349856</v>
       </c>
       <c r="D28" s="13">
         <f t="shared" si="1"/>
-        <v>2.6797919287573553</v>
+        <v>2.327789893789121</v>
       </c>
       <c r="E28" s="13">
         <f t="shared" si="1"/>
-        <v>7.0336778772661033</v>
+        <v>5.3229992761360867</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" si="2"/>
@@ -22108,19 +22112,19 @@
       </c>
       <c r="B29" s="13">
         <f t="shared" si="1"/>
-        <v>46.060631503084643</v>
+        <v>26.650866421485407</v>
       </c>
       <c r="C29" s="13">
         <f t="shared" si="1"/>
-        <v>46.060631503084643</v>
+        <v>26.650866421485407</v>
       </c>
       <c r="D29" s="13">
         <f t="shared" si="1"/>
-        <v>3.1308994327648887</v>
+        <v>2.6598628510266931</v>
       </c>
       <c r="E29" s="13">
         <f t="shared" si="1"/>
-        <v>8.2177044567766409</v>
+        <v>6.0823565169748077</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="2"/>
@@ -22142,19 +22146,19 @@
       </c>
       <c r="B30" s="13">
         <f t="shared" si="1"/>
-        <v>53.459120296117291</v>
+        <v>30.280395940709656</v>
       </c>
       <c r="C30" s="13">
         <f t="shared" si="1"/>
-        <v>53.459120296117291</v>
+        <v>30.280395940709656</v>
       </c>
       <c r="D30" s="13">
         <f t="shared" si="1"/>
-        <v>3.6338001444903023</v>
+        <v>3.0221043850244937</v>
       </c>
       <c r="E30" s="13">
         <f t="shared" si="1"/>
-        <v>9.5376732097852628</v>
+        <v>6.9107007882518081</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" si="2"/>
@@ -22176,19 +22180,19 @@
       </c>
       <c r="B31" s="13">
         <f t="shared" si="1"/>
-        <v>61.6697932224751</v>
+        <v>34.225346250982952</v>
       </c>
       <c r="C31" s="13">
         <f t="shared" si="1"/>
-        <v>61.6697932224751</v>
+        <v>34.225346250982952</v>
       </c>
       <c r="D31" s="13">
         <f t="shared" si="1"/>
-        <v>4.1919078032189958</v>
+        <v>3.4158261730329658</v>
       </c>
       <c r="E31" s="13">
         <f t="shared" si="1"/>
-        <v>11.002544213465427</v>
+        <v>7.8110315260730987</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" si="2"/>
@@ -22210,19 +22214,19 @@
       </c>
       <c r="B32" s="13">
         <f t="shared" si="1"/>
-        <v>70.743929595112405</v>
+        <v>38.498859885265681</v>
       </c>
       <c r="C32" s="13">
         <f t="shared" si="1"/>
-        <v>70.743929595112405</v>
+        <v>38.498859885265681</v>
       </c>
       <c r="D32" s="13">
         <f t="shared" si="1"/>
-        <v>4.808708040098483</v>
+        <v>3.8423398923025531</v>
       </c>
       <c r="E32" s="13">
         <f t="shared" si="1"/>
-        <v>12.621466240312309</v>
+        <v>8.7863481665446912</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" si="2"/>
@@ -22244,19 +22248,19 @@
       </c>
       <c r="B33" s="13">
         <f t="shared" si="1"/>
-        <v>80.733844986938223</v>
+        <v>43.114079376518234</v>
       </c>
       <c r="C33" s="13">
         <f t="shared" si="1"/>
-        <v>80.733844986938223</v>
+        <v>43.114079376518234</v>
       </c>
       <c r="D33" s="13">
         <f t="shared" si="1"/>
-        <v>5.4877569244270052</v>
+        <v>4.3029572200837025</v>
       </c>
       <c r="E33" s="13">
         <f t="shared" si="1"/>
-        <v>14.403772942571276</v>
+        <v>9.8396501457725929</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="2"/>
@@ -22278,19 +22282,19 @@
       </c>
       <c r="B34" s="13">
         <f t="shared" si="1"/>
-        <v>91.692871091987882</v>
+        <v>48.08414725770097</v>
       </c>
       <c r="C34" s="13">
         <f t="shared" si="1"/>
-        <v>91.692871091987882</v>
+        <v>48.08414725770097</v>
       </c>
       <c r="D34" s="13">
         <f t="shared" si="1"/>
-        <v>6.232679594748137</v>
+        <v>4.7989898336268579</v>
       </c>
       <c r="E34" s="13">
         <f t="shared" si="1"/>
-        <v>16.358979259257723</v>
+        <v>10.973936899862828</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" si="2"/>
@@ -22312,19 +22316,19 @@
       </c>
       <c r="B35" s="13">
         <f t="shared" si="1"/>
-        <v>103.67533671740209</v>
+        <v>53.422206061774297</v>
       </c>
       <c r="C35" s="13">
         <f t="shared" si="1"/>
-        <v>103.67533671740209</v>
+        <v>53.422206061774297</v>
       </c>
       <c r="D35" s="13">
         <f t="shared" si="1"/>
-        <v>7.0471689668102977</v>
+        <v>5.3317494101824625</v>
       </c>
       <c r="E35" s="13">
         <f t="shared" si="1"/>
-        <v>18.496778024924765</v>
+        <v>12.192207864921393</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="2"/>
@@ -22346,19 +22350,19 @@
       </c>
       <c r="B36" s="13">
         <f t="shared" si="1"/>
-        <v>116.73654980415721</v>
+        <v>59.141398321698546</v>
       </c>
       <c r="C36" s="13">
         <f t="shared" si="1"/>
-        <v>116.73654980415721</v>
+        <v>59.141398321698546</v>
       </c>
       <c r="D36" s="13">
         <f t="shared" si="1"/>
-        <v>7.934984511453977</v>
+        <v>5.9025476270009642</v>
       </c>
       <c r="E36" s="13">
         <f t="shared" si="1"/>
-        <v>20.827036761971158</v>
+        <v>13.497462477054313</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" si="2"/>
@@ -23116,8 +23120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28554,8 +28558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q97"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30322,7 +30326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -30856,7 +30860,7 @@
   <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30884,22 +30888,22 @@
     <row r="2" spans="1:7">
       <c r="A2" s="13"/>
       <c r="B2" s="13">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C2" s="13">
         <v>74</v>
       </c>
       <c r="D2" s="13">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E2" s="13">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="13"/>
       <c r="B3" s="13">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -30967,19 +30971,19 @@
       </c>
       <c r="B10" s="13">
         <f>+B$1*($A10/B$2)^$B$3</f>
-        <v>0.11518039891077703</v>
+        <v>0.15793733836100529</v>
       </c>
       <c r="C10" s="13">
         <f t="shared" ref="C10:E10" si="0">+C$1*($A10/C$2)^$B$3</f>
-        <v>0.13132073241977255</v>
+        <v>0.15793733836100529</v>
       </c>
       <c r="D10" s="13">
         <f t="shared" si="0"/>
-        <v>9.1293799240082102E-3</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="E10" s="13">
         <f t="shared" si="0"/>
-        <v>1.8059117984186492E-2</v>
+        <v>2.9130632680928543E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -30989,19 +30993,19 @@
       </c>
       <c r="B11" s="13">
         <f t="shared" ref="B11:E36" si="1">+B$1*($A11/B$2)^$B$3</f>
-        <v>0.24053685108630898</v>
+        <v>0.3084713639863384</v>
       </c>
       <c r="C11" s="13">
         <f t="shared" si="1"/>
-        <v>0.27424349765508843</v>
+        <v>0.3084713639863384</v>
       </c>
       <c r="D11" s="13">
         <f t="shared" si="1"/>
-        <v>1.906532986565334E-2</v>
+        <v>3.0517578125E-2</v>
       </c>
       <c r="E11" s="13">
         <f t="shared" si="1"/>
-        <v>3.7713737878936164E-2</v>
+        <v>5.6895766954938559E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -31011,19 +31015,19 @@
       </c>
       <c r="B12" s="13">
         <f t="shared" si="1"/>
-        <v>0.43901537805422175</v>
+        <v>0.53303851696839288</v>
       </c>
       <c r="C12" s="13">
         <f t="shared" si="1"/>
-        <v>0.50053500018074182</v>
+        <v>0.53303851696839288</v>
       </c>
       <c r="D12" s="13">
         <f t="shared" si="1"/>
-        <v>3.4797050684325051E-2</v>
+        <v>5.2734375E-2</v>
       </c>
       <c r="E12" s="13">
         <f t="shared" si="1"/>
-        <v>6.883315723966997E-2</v>
+        <v>9.8315885298133843E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -31033,19 +31037,19 @@
       </c>
       <c r="B13" s="13">
         <f t="shared" si="1"/>
-        <v>0.73013663336953272</v>
+        <v>0.84644542277851265</v>
       </c>
       <c r="C13" s="13">
         <f t="shared" si="1"/>
-        <v>0.83245134039575341</v>
+        <v>0.84644542277851265</v>
       </c>
       <c r="D13" s="13">
         <f t="shared" si="1"/>
-        <v>5.7871780142298775E-2</v>
+        <v>8.3740234375E-2</v>
       </c>
       <c r="E13" s="13">
         <f t="shared" si="1"/>
-        <v>0.11447801649663653</v>
+        <v>0.15612198452435136</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -31055,19 +31059,19 @@
       </c>
       <c r="B14" s="13">
         <f t="shared" si="1"/>
-        <v>1.1344296371667362</v>
+        <v>1.2634987068880423</v>
       </c>
       <c r="C14" s="13">
         <f t="shared" si="1"/>
-        <v>1.2933982885997244</v>
+        <v>1.2634987068880423</v>
       </c>
       <c r="D14" s="13">
         <f t="shared" si="1"/>
-        <v>8.9916680725967577E-2</v>
+        <v>0.125</v>
       </c>
       <c r="E14" s="13">
         <f t="shared" si="1"/>
-        <v>0.17786705772934328</v>
+        <v>0.23304506144742834</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -31077,19 +31081,19 @@
       </c>
       <c r="B15" s="13">
         <f t="shared" si="1"/>
-        <v>1.6733272674058921</v>
+        <v>1.7990049947683255</v>
       </c>
       <c r="C15" s="13">
         <f t="shared" si="1"/>
-        <v>1.9078121313326835</v>
+        <v>1.7990049947683255</v>
       </c>
       <c r="D15" s="13">
         <f t="shared" si="1"/>
-        <v>0.13263055611731789</v>
+        <v>0.177978515625</v>
       </c>
       <c r="E15" s="13">
         <f t="shared" si="1"/>
-        <v>0.26236073875423882</v>
+        <v>0.33181611288120161</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -31099,19 +31103,19 @@
       </c>
       <c r="B16" s="13">
         <f t="shared" si="1"/>
-        <v>2.3690848033478984</v>
+        <v>2.4677709118907072</v>
       </c>
       <c r="C16" s="13">
         <f t="shared" si="1"/>
-        <v>2.7010668002738538</v>
+        <v>2.4677709118907072</v>
       </c>
       <c r="D16" s="13">
         <f t="shared" si="1"/>
-        <v>0.18777739482141673</v>
+        <v>0.244140625</v>
       </c>
       <c r="E16" s="13">
         <f t="shared" si="1"/>
-        <v>0.37144846156805444</v>
+        <v>0.45516613563950847</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -31121,19 +31125,19 @@
       </c>
       <c r="B17" s="13">
         <f t="shared" si="1"/>
-        <v>3.244714338485835</v>
+        <v>3.2846030837265308</v>
       </c>
       <c r="C17" s="13">
         <f t="shared" si="1"/>
-        <v>3.6993990943977253</v>
+        <v>3.2846030837265308</v>
       </c>
       <c r="D17" s="13">
         <f t="shared" si="1"/>
-        <v>0.25718117163199472</v>
+        <v>0.324951171875</v>
       </c>
       <c r="E17" s="13">
         <f t="shared" si="1"/>
-        <v>0.50873828896085393</v>
+        <v>0.60582612653618573</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -31143,19 +31147,19 @@
       </c>
       <c r="B18" s="13">
         <f t="shared" si="1"/>
-        <v>4.3239306405116915</v>
+        <v>4.2643081357471431</v>
       </c>
       <c r="C18" s="13">
         <f t="shared" si="1"/>
-        <v>4.9298469532489353</v>
+        <v>4.2643081357471431</v>
       </c>
       <c r="D18" s="13">
         <f t="shared" si="1"/>
-        <v>0.34272155640709345</v>
+        <v>0.421875</v>
       </c>
       <c r="E18" s="13">
         <f t="shared" si="1"/>
-        <v>0.67794845590809472</v>
+        <v>0.78652708238507074</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -31165,19 +31169,19 @@
       </c>
       <c r="B19" s="13">
         <f t="shared" si="1"/>
-        <v>5.6311055716183462</v>
+        <v>5.4216926934238847</v>
       </c>
       <c r="C19" s="13">
         <f t="shared" si="1"/>
-        <v>6.4201974901199277</v>
+        <v>5.4216926934238847</v>
       </c>
       <c r="D19" s="13">
         <f t="shared" si="1"/>
-        <v>0.44633030135037322</v>
+        <v>0.536376953125</v>
       </c>
       <c r="E19" s="13">
         <f t="shared" si="1"/>
-        <v>0.88290022313640903</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -31187,19 +31191,19 @@
       </c>
       <c r="B20" s="13">
         <f t="shared" si="1"/>
-        <v>7.1912290972109245</v>
+        <v>6.7715633822281012</v>
       </c>
       <c r="C20" s="13">
         <f t="shared" si="1"/>
-        <v>8.1989425368777518</v>
+        <v>6.7715633822281012</v>
       </c>
       <c r="D20" s="13">
         <f t="shared" si="1"/>
-        <v>0.56998815050013107</v>
+        <v>0.669921875</v>
       </c>
       <c r="E20" s="13">
         <f t="shared" si="1"/>
-        <v>1.1275117636851295</v>
+        <v>1.2489758761948109</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -31209,19 +31213,19 @@
       </c>
       <c r="B21" s="13">
         <f t="shared" si="1"/>
-        <v>9.0298754859319494</v>
+        <v>8.3287268276311401</v>
       </c>
       <c r="C21" s="13">
         <f t="shared" si="1"/>
-        <v>10.295240107568169</v>
+        <v>8.3287268276311401</v>
       </c>
       <c r="D21" s="13">
         <f t="shared" si="1"/>
-        <v>0.71572216069003114</v>
+        <v>0.823974609375</v>
       </c>
       <c r="E21" s="13">
         <f t="shared" si="1"/>
-        <v>1.4157928634131551</v>
+        <v>1.5361857077833405</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -31231,19 +31235,19 @@
       </c>
       <c r="B22" s="13">
         <f t="shared" si="1"/>
-        <v>11.173173681045817</v>
+        <v>10.107989655104339</v>
       </c>
       <c r="C22" s="13">
         <f t="shared" si="1"/>
-        <v>12.738880617915406</v>
+        <v>10.107989655104339</v>
       </c>
       <c r="D22" s="13">
         <f t="shared" si="1"/>
-        <v>0.88560335313834793</v>
+        <v>1</v>
       </c>
       <c r="E22" s="13">
         <f t="shared" si="1"/>
-        <v>1.7518402755326294</v>
+        <v>1.8643604915794267</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -31253,19 +31257,19 @@
       </c>
       <c r="B23" s="13">
         <f t="shared" si="1"/>
-        <v>13.6477810796386</v>
+        <v>12.124158490119045</v>
       </c>
       <c r="C23" s="13">
         <f t="shared" si="1"/>
-        <v>15.560256990177521</v>
+        <v>12.124158490119045</v>
       </c>
       <c r="D23" s="13">
         <f t="shared" si="1"/>
-        <v>1.081744635146022</v>
+        <v>1.199462890625</v>
       </c>
       <c r="E23" s="13">
         <f t="shared" si="1"/>
-        <v>2.1398336094534969</v>
+        <v>2.2362312243969051</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -31275,19 +31279,19 @@
       </c>
       <c r="B24" s="13">
         <f t="shared" si="1"/>
-        <v>16.480860135715833</v>
+        <v>14.392039958146604</v>
       </c>
       <c r="C24" s="13">
         <f t="shared" si="1"/>
-        <v>18.790337977615124</v>
+        <v>14.392039958146604</v>
       </c>
       <c r="D24" s="13">
         <f t="shared" si="1"/>
-        <v>1.3062989456213221</v>
+        <v>1.423828125</v>
       </c>
       <c r="E24" s="13">
         <f t="shared" si="1"/>
-        <v>2.5840316623866091</v>
+        <v>2.6545289030496129</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -31297,19 +31301,19 @@
       </c>
       <c r="B25" s="13">
         <f t="shared" si="1"/>
-        <v>19.700057332372975</v>
+        <v>16.92644068465836</v>
       </c>
       <c r="C25" s="13">
         <f t="shared" si="1"/>
-        <v>22.460644190013024</v>
+        <v>16.92644068465836</v>
       </c>
       <c r="D25" s="13">
         <f t="shared" si="1"/>
-        <v>1.5614575883809396</v>
+        <v>1.674560546875</v>
       </c>
       <c r="E25" s="13">
         <f t="shared" si="1"/>
-        <v>3.0887691223933924</v>
+        <v>3.1219845243513875</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -31319,19 +31323,19 @@
       </c>
       <c r="B26" s="13">
         <f t="shared" si="1"/>
-        <v>23.333484163056834</v>
+        <v>19.742167295125657</v>
       </c>
       <c r="C26" s="13">
         <f t="shared" si="1"/>
-        <v>26.603226409828668</v>
+        <v>19.742167295125657</v>
       </c>
       <c r="D26" s="13">
         <f t="shared" si="1"/>
-        <v>1.8494487246947979</v>
+        <v>1.953125</v>
       </c>
       <c r="E26" s="13">
         <f t="shared" si="1"/>
-        <v>3.6584535864405927</v>
+        <v>3.6413290851160678</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -31341,19 +31345,19 @@
       </c>
       <c r="B27" s="13">
         <f t="shared" si="1"/>
-        <v>27.409699832973729</v>
+        <v>22.854026415019838</v>
       </c>
       <c r="C27" s="13">
         <f t="shared" si="1"/>
-        <v>31.250645869532885</v>
+        <v>22.854026415019838</v>
       </c>
       <c r="D27" s="13">
         <f t="shared" si="1"/>
-        <v>2.1725360021723978</v>
+        <v>2.260986328125</v>
       </c>
       <c r="E27" s="13">
         <f t="shared" si="1"/>
-        <v>4.2975628481565744</v>
+        <v>4.2152935821574875</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -31363,19 +31367,19 @@
       </c>
       <c r="B28" s="13">
         <f t="shared" si="1"/>
-        <v>31.95769544581584</v>
+        <v>26.276824669812246</v>
       </c>
       <c r="C28" s="13">
         <f t="shared" si="1"/>
-        <v>36.435956222408024</v>
+        <v>26.276824669812246</v>
       </c>
       <c r="D28" s="13">
         <f t="shared" si="1"/>
-        <v>2.5330173013778432</v>
+        <v>2.599609375</v>
       </c>
       <c r="E28" s="13">
         <f t="shared" si="1"/>
-        <v>5.0106424184704554</v>
+        <v>4.8466090122894858</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -31385,19 +31389,19 @@
       </c>
       <c r="B29" s="13">
         <f t="shared" si="1"/>
-        <v>37.006879482829667</v>
+        <v>30.025368684974229</v>
       </c>
       <c r="C29" s="13">
         <f t="shared" si="1"/>
-        <v>42.192686986784949</v>
+        <v>30.025368684974229</v>
       </c>
       <c r="D29" s="13">
         <f t="shared" si="1"/>
-        <v>2.9332235848779047</v>
+        <v>2.970458984375</v>
       </c>
       <c r="E29" s="13">
         <f t="shared" si="1"/>
-        <v>5.8023032488773572</v>
+        <v>5.5380063723258983</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -31407,19 +31411,19 @@
       </c>
       <c r="B30" s="13">
         <f t="shared" si="1"/>
-        <v>42.587064414054993</v>
+        <v>34.114465085977145</v>
       </c>
       <c r="C30" s="13">
         <f t="shared" si="1"/>
-        <v>48.554828281103084</v>
+        <v>34.114465085977145</v>
       </c>
       <c r="D30" s="13">
         <f t="shared" si="1"/>
-        <v>3.3755178360277411</v>
+        <v>3.375</v>
       </c>
       <c r="E30" s="13">
         <f t="shared" si="1"/>
-        <v>6.6772196322165049</v>
+        <v>6.2922166590805659</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -31429,19 +31433,19 @@
       </c>
       <c r="B31" s="13">
         <f t="shared" si="1"/>
-        <v>48.728454307591399</v>
+        <v>38.558920498292309</v>
       </c>
       <c r="C31" s="13">
         <f t="shared" si="1"/>
-        <v>55.556816696851882</v>
+        <v>38.558920498292309</v>
       </c>
       <c r="D31" s="13">
         <f t="shared" si="1"/>
-        <v>3.8622940768618252</v>
+        <v>3.814697265625</v>
       </c>
       <c r="E31" s="13">
         <f t="shared" si="1"/>
-        <v>7.6401272599299483</v>
+        <v>7.1119708693673189</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -31451,19 +31455,19 @@
       </c>
       <c r="B32" s="13">
         <f t="shared" si="1"/>
-        <v>55.461633323626884</v>
+        <v>43.373541547391078</v>
       </c>
       <c r="C32" s="13">
         <f t="shared" si="1"/>
-        <v>63.233522180257651</v>
+        <v>43.373541547391078</v>
       </c>
       <c r="D32" s="13">
         <f t="shared" si="1"/>
-        <v>4.3959764561125185</v>
+        <v>4.291015625</v>
       </c>
       <c r="E32" s="13">
         <f t="shared" si="1"/>
-        <v>8.6958214180429589</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -31473,19 +31477,19 @@
       </c>
       <c r="B33" s="13">
         <f t="shared" si="1"/>
-        <v>62.817554996877604</v>
+        <v>48.573134858744794</v>
       </c>
       <c r="C33" s="13">
         <f t="shared" si="1"/>
-        <v>71.620235812861438</v>
+        <v>48.573134858744794</v>
       </c>
       <c r="D33" s="13">
         <f t="shared" si="1"/>
-        <v>4.9790183997193704</v>
+        <v>4.805419921875</v>
       </c>
       <c r="E33" s="13">
         <f t="shared" si="1"/>
-        <v>9.8491553067593287</v>
+        <v>8.9590350477924474</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -31495,19 +31499,19 @@
       </c>
       <c r="B34" s="13">
         <f t="shared" si="1"/>
-        <v>70.827532224917093</v>
+        <v>54.172507057824809</v>
       </c>
       <c r="C34" s="13">
         <f t="shared" si="1"/>
-        <v>80.752658396904351</v>
+        <v>54.172507057824809</v>
       </c>
       <c r="D34" s="13">
         <f t="shared" si="1"/>
-        <v>5.6139018172883031</v>
+        <v>5.359375</v>
       </c>
       <c r="E34" s="13">
         <f t="shared" si="1"/>
-        <v>11.105038470732964</v>
+        <v>9.991807009558487</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -31517,19 +31521,19 @@
       </c>
       <c r="B35" s="13">
         <f t="shared" si="1"/>
-        <v>79.523227891273251</v>
+        <v>60.186464770102461</v>
       </c>
       <c r="C35" s="13">
         <f t="shared" si="1"/>
-        <v>90.66688976442984</v>
+        <v>60.186464770102461</v>
       </c>
       <c r="D35" s="13">
         <f t="shared" si="1"/>
-        <v>6.3031363588634957</v>
+        <v>5.954345703125</v>
       </c>
       <c r="E35" s="13">
         <f t="shared" si="1"/>
-        <v>12.46843532886464</v>
+        <v>11.101046882111971</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -31539,19 +31543,19 @@
       </c>
       <c r="B36" s="13">
         <f t="shared" si="1"/>
-        <v>88.936646061642634</v>
+        <v>66.629814621049121</v>
       </c>
       <c r="C36" s="13">
         <f t="shared" si="1"/>
-        <v>101.39941873981651</v>
+        <v>66.629814621049121</v>
       </c>
       <c r="D36" s="13">
         <f t="shared" si="1"/>
-        <v>7.0492587171254737</v>
+        <v>6.591796875</v>
       </c>
       <c r="E36" s="13">
         <f t="shared" si="1"/>
-        <v>13.94436379395766</v>
+        <v>12.289485662266724</v>
       </c>
     </row>
     <row r="37" spans="1:5">
